--- a/src/main/resources/кроссовый_журнал_Аврора.xlsx
+++ b/src/main/resources/кроссовый_журнал_Аврора.xlsx
@@ -2673,7 +2673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2711,43 +2711,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3058,7 +3031,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E299" sqref="E299"/>
+      <selection pane="bottomLeft" activeCell="F292" sqref="F292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3106,10 +3079,10 @@
       <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
       <c r="F2" s="7"/>
@@ -3125,10 +3098,10 @@
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="7"/>
@@ -3144,10 +3117,10 @@
       <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="7"/>
@@ -3163,10 +3136,10 @@
       <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="7"/>
@@ -3182,10 +3155,10 @@
       <c r="C6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="7"/>
@@ -3201,10 +3174,10 @@
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="7"/>
@@ -3220,10 +3193,10 @@
       <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="5">
         <v>6</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="7"/>
@@ -3239,10 +3212,10 @@
       <c r="C9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="5">
         <v>6</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="7"/>
@@ -3258,10 +3231,10 @@
       <c r="C10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="5">
         <v>6</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="7"/>
@@ -3277,10 +3250,10 @@
       <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="7"/>
@@ -3296,10 +3269,10 @@
       <c r="C12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="11">
         <v>1</v>
       </c>
       <c r="F12" s="7"/>
@@ -3315,29 +3288,29 @@
       <c r="C13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="5">
         <v>3</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="24">
+      <c r="C14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="13">
         <v>11</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -3346,19 +3319,19 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="C15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="13">
         <v>11</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="15">
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -3367,19 +3340,19 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="B16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="13">
         <v>11</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -3397,10 +3370,10 @@
       <c r="C17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="5">
         <v>4</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="11">
         <v>1</v>
       </c>
       <c r="F17" s="7"/>
@@ -3416,10 +3389,10 @@
       <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="5">
         <v>4</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="11">
         <v>1</v>
       </c>
       <c r="F18" s="7"/>
@@ -3435,10 +3408,10 @@
       <c r="C19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="5">
         <v>4</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="11">
         <v>1</v>
       </c>
       <c r="F19" s="7"/>
@@ -3454,10 +3427,10 @@
       <c r="C20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="11">
         <v>1</v>
       </c>
       <c r="F20" s="7"/>
@@ -3473,10 +3446,10 @@
       <c r="C21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="11">
         <v>1</v>
       </c>
       <c r="F21" s="7"/>
@@ -3492,10 +3465,10 @@
       <c r="C22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="5">
         <v>5</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="11">
         <v>1</v>
       </c>
       <c r="F22" s="7"/>
@@ -3511,10 +3484,10 @@
       <c r="C23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="5">
         <v>9</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="11">
         <v>1</v>
       </c>
       <c r="F23" s="7"/>
@@ -3530,10 +3503,10 @@
       <c r="C24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="5">
         <v>9</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="11">
         <v>1</v>
       </c>
       <c r="F24" s="7"/>
@@ -3549,10 +3522,10 @@
       <c r="C25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="5">
         <v>9</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="11">
         <v>1</v>
       </c>
       <c r="F25" s="7"/>
@@ -3568,10 +3541,10 @@
       <c r="C26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="8">
         <v>10</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="16">
         <v>1</v>
       </c>
       <c r="F26" s="7"/>
@@ -3587,10 +3560,10 @@
       <c r="C27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="8">
         <v>10</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="16">
         <v>1</v>
       </c>
       <c r="F27" s="7"/>
@@ -3606,10 +3579,10 @@
       <c r="C28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="8">
         <v>10</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="16">
         <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
@@ -3627,10 +3600,10 @@
       <c r="C29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="5">
         <v>11</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="11">
         <v>1</v>
       </c>
       <c r="F29" s="7"/>
@@ -3646,10 +3619,10 @@
       <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="5">
         <v>11</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="11">
         <v>1</v>
       </c>
       <c r="F30" s="7"/>
@@ -3665,10 +3638,10 @@
       <c r="C31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="5">
         <v>11</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="11">
         <v>1</v>
       </c>
       <c r="F31" s="7"/>
@@ -3684,10 +3657,10 @@
       <c r="C32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="8">
         <v>12</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="16">
         <v>1</v>
       </c>
       <c r="F32" s="7"/>
@@ -3703,10 +3676,10 @@
       <c r="C33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="8">
         <v>12</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="16">
         <v>1</v>
       </c>
       <c r="F33" s="7"/>
@@ -3722,10 +3695,10 @@
       <c r="C34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="8">
         <v>12</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="16">
         <v>1</v>
       </c>
       <c r="F34" s="7"/>
@@ -3741,10 +3714,10 @@
       <c r="C35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="8">
         <v>13</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="16">
         <v>1</v>
       </c>
       <c r="F35" s="7"/>
@@ -3760,10 +3733,10 @@
       <c r="C36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="8">
         <v>13</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="16">
         <v>1</v>
       </c>
       <c r="F36" s="7"/>
@@ -3779,10 +3752,10 @@
       <c r="C37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="8">
         <v>13</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="16">
         <v>1</v>
       </c>
       <c r="F37" s="7"/>
@@ -3798,10 +3771,10 @@
       <c r="C38" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="8">
         <v>18</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="16">
         <v>1</v>
       </c>
       <c r="F38" s="7"/>
@@ -3817,10 +3790,10 @@
       <c r="C39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="8">
         <v>18</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="16">
         <v>1</v>
       </c>
       <c r="F39" s="7"/>
@@ -3836,10 +3809,10 @@
       <c r="C40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="8">
         <v>18</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="16">
         <v>1</v>
       </c>
       <c r="F40" s="7"/>
@@ -3855,10 +3828,10 @@
       <c r="C41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="8">
         <v>17</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="16">
         <v>1</v>
       </c>
       <c r="F41" s="7"/>
@@ -3874,10 +3847,10 @@
       <c r="C42" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="8">
         <v>17</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="16">
         <v>1</v>
       </c>
       <c r="F42" s="7"/>
@@ -3893,10 +3866,10 @@
       <c r="C43" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="8">
         <v>17</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="16">
         <v>1</v>
       </c>
       <c r="F43" s="7"/>
@@ -3912,10 +3885,10 @@
       <c r="C44" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="5">
         <v>16</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="11">
         <v>1</v>
       </c>
       <c r="F44" s="7"/>
@@ -3931,10 +3904,10 @@
       <c r="C45" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="5">
         <v>16</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="11">
         <v>1</v>
       </c>
       <c r="F45" s="7"/>
@@ -3950,10 +3923,10 @@
       <c r="C46" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="5">
         <v>16</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="11">
         <v>1</v>
       </c>
       <c r="F46" s="7"/>
@@ -3969,10 +3942,10 @@
       <c r="C47" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="5">
         <v>14</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="11">
         <v>1</v>
       </c>
       <c r="F47" s="7"/>
@@ -3988,10 +3961,10 @@
       <c r="C48" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="5">
         <v>14</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="11">
         <v>1</v>
       </c>
       <c r="F48" s="7"/>
@@ -4007,10 +3980,10 @@
       <c r="C49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="5">
         <v>14</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="11">
         <v>1</v>
       </c>
       <c r="F49" s="7"/>
@@ -4026,10 +3999,10 @@
       <c r="C50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="5">
         <v>22</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="11">
         <v>1</v>
       </c>
       <c r="F50" s="7"/>
@@ -4045,10 +4018,10 @@
       <c r="C51" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="5">
         <v>22</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="11">
         <v>1</v>
       </c>
       <c r="F51" s="7"/>
@@ -4064,10 +4037,10 @@
       <c r="C52" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="5">
         <v>22</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="11">
         <v>1</v>
       </c>
       <c r="F52" s="7"/>
@@ -4083,10 +4056,10 @@
       <c r="C53" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="5">
         <v>27</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="11">
         <v>1</v>
       </c>
       <c r="F53" s="7"/>
@@ -4102,10 +4075,10 @@
       <c r="C54" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="5">
         <v>27</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="11">
         <v>1</v>
       </c>
       <c r="F54" s="7"/>
@@ -4121,10 +4094,10 @@
       <c r="C55" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="5">
         <v>27</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="11">
         <v>1</v>
       </c>
       <c r="F55" s="7"/>
@@ -4140,10 +4113,10 @@
       <c r="C56" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="5">
         <v>23</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="11">
         <v>1</v>
       </c>
       <c r="F56" s="7"/>
@@ -4159,10 +4132,10 @@
       <c r="C57" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="5">
         <v>23</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="11">
         <v>1</v>
       </c>
       <c r="F57" s="7"/>
@@ -4178,10 +4151,10 @@
       <c r="C58" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="5">
         <v>23</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="11">
         <v>1</v>
       </c>
       <c r="F58" s="7"/>
@@ -4197,10 +4170,10 @@
       <c r="C59" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="5">
         <v>28</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="11">
         <v>1</v>
       </c>
       <c r="F59" s="7"/>
@@ -4216,10 +4189,10 @@
       <c r="C60" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="5">
         <v>28</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="11">
         <v>1</v>
       </c>
       <c r="F60" s="7"/>
@@ -4235,10 +4208,10 @@
       <c r="C61" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="5">
         <v>28</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="11">
         <v>1</v>
       </c>
       <c r="F61" s="7"/>
@@ -4254,10 +4227,10 @@
       <c r="C62" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="5">
         <v>20</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="11">
         <v>1</v>
       </c>
       <c r="F62" s="7"/>
@@ -4273,10 +4246,10 @@
       <c r="C63" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="5">
         <v>20</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="11">
         <v>1</v>
       </c>
       <c r="F63" s="7"/>
@@ -4292,10 +4265,10 @@
       <c r="C64" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="5">
         <v>20</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="11">
         <v>1</v>
       </c>
       <c r="F64" s="7"/>
@@ -4311,10 +4284,10 @@
       <c r="C65" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="5">
         <v>25</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="11">
         <v>1</v>
       </c>
       <c r="F65" s="7"/>
@@ -4330,10 +4303,10 @@
       <c r="C66" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="5">
         <v>25</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="11">
         <v>1</v>
       </c>
       <c r="F66" s="7"/>
@@ -4349,10 +4322,10 @@
       <c r="C67" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="8">
         <v>25</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67" s="16">
         <v>1</v>
       </c>
       <c r="F67" s="10"/>
@@ -4368,10 +4341,10 @@
       <c r="C68" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="5">
         <v>21</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="11">
         <v>1</v>
       </c>
       <c r="F68" s="7"/>
@@ -4387,10 +4360,10 @@
       <c r="C69" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="8">
         <v>21</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="16">
         <v>1</v>
       </c>
       <c r="F69" s="10"/>
@@ -4406,10 +4379,10 @@
       <c r="C70" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="8">
         <v>21</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="16">
         <v>1</v>
       </c>
       <c r="F70" s="10"/>
@@ -4425,10 +4398,10 @@
       <c r="C71" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="5">
         <v>26</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="11">
         <v>1</v>
       </c>
       <c r="F71" s="7"/>
@@ -4444,10 +4417,10 @@
       <c r="C72" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="5">
         <v>26</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="11">
         <v>1</v>
       </c>
       <c r="F72" s="7"/>
@@ -4463,10 +4436,10 @@
       <c r="C73" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="5">
         <v>26</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="11">
         <v>1</v>
       </c>
       <c r="F73" s="7"/>
@@ -4482,10 +4455,10 @@
       <c r="C74" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="5">
         <v>37</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="11">
         <v>3</v>
       </c>
       <c r="F74" s="7"/>
@@ -4501,10 +4474,10 @@
       <c r="C75" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="5">
         <v>37</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="11">
         <v>3</v>
       </c>
       <c r="F75" s="7"/>
@@ -4520,10 +4493,10 @@
       <c r="C76" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="8">
         <v>37</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E76" s="16">
         <v>3</v>
       </c>
       <c r="F76" s="10"/>
@@ -4539,10 +4512,10 @@
       <c r="C77" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="5">
         <v>38</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="11">
         <v>3</v>
       </c>
       <c r="F77" s="7"/>
@@ -4558,10 +4531,10 @@
       <c r="C78" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="5">
         <v>38</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="11">
         <v>3</v>
       </c>
       <c r="F78" s="7"/>
@@ -4577,10 +4550,10 @@
       <c r="C79" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D79" s="8">
         <v>38</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E79" s="16">
         <v>3</v>
       </c>
       <c r="F79" s="10"/>
@@ -4596,10 +4569,10 @@
       <c r="C80" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D80" s="5">
         <v>29</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E80" s="11">
         <v>3</v>
       </c>
       <c r="F80" s="7"/>
@@ -4615,10 +4588,10 @@
       <c r="C81" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D81" s="5">
         <v>29</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="11">
         <v>3</v>
       </c>
       <c r="F81" s="7"/>
@@ -4634,10 +4607,10 @@
       <c r="C82" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D82" s="8">
         <v>29</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E82" s="16">
         <v>3</v>
       </c>
       <c r="F82" s="10"/>
@@ -4653,10 +4626,10 @@
       <c r="C83" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="5">
         <v>33</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E83" s="11">
         <v>3</v>
       </c>
       <c r="F83" s="7"/>
@@ -4672,10 +4645,10 @@
       <c r="C84" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D84" s="5">
         <v>33</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E84" s="11">
         <v>3</v>
       </c>
       <c r="F84" s="7"/>
@@ -4691,10 +4664,10 @@
       <c r="C85" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="8">
         <v>33</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E85" s="16">
         <v>3</v>
       </c>
       <c r="F85" s="10"/>
@@ -4710,10 +4683,10 @@
       <c r="C86" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D86" s="20">
+      <c r="D86" s="5">
         <v>30</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E86" s="11">
         <v>3</v>
       </c>
       <c r="F86" s="7"/>
@@ -4729,10 +4702,10 @@
       <c r="C87" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="5">
         <v>30</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="11">
         <v>3</v>
       </c>
       <c r="F87" s="7"/>
@@ -4748,10 +4721,10 @@
       <c r="C88" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="8">
         <v>30</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E88" s="16">
         <v>3</v>
       </c>
       <c r="F88" s="10"/>
@@ -4767,10 +4740,10 @@
       <c r="C89" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="5">
         <v>34</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E89" s="11">
         <v>3</v>
       </c>
       <c r="F89" s="7"/>
@@ -4786,10 +4759,10 @@
       <c r="C90" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="20">
+      <c r="D90" s="5">
         <v>34</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="11">
         <v>3</v>
       </c>
       <c r="F90" s="7"/>
@@ -4805,10 +4778,10 @@
       <c r="C91" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="21">
+      <c r="D91" s="8">
         <v>34</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E91" s="16">
         <v>3</v>
       </c>
       <c r="F91" s="10"/>
@@ -4824,10 +4797,10 @@
       <c r="C92" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D92" s="5">
         <v>31</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="11">
         <v>3</v>
       </c>
       <c r="F92" s="7"/>
@@ -4843,10 +4816,10 @@
       <c r="C93" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="5">
         <v>31</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="11">
         <v>3</v>
       </c>
       <c r="F93" s="7"/>
@@ -4862,10 +4835,10 @@
       <c r="C94" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D94" s="20">
+      <c r="D94" s="5">
         <v>31</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="11">
         <v>3</v>
       </c>
       <c r="F94" s="7"/>
@@ -4881,10 +4854,10 @@
       <c r="C95" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="5">
         <v>35</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E95" s="11">
         <v>3</v>
       </c>
       <c r="F95" s="7"/>
@@ -4900,10 +4873,10 @@
       <c r="C96" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D96" s="5">
         <v>35</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="11">
         <v>3</v>
       </c>
       <c r="F96" s="7"/>
@@ -4919,10 +4892,10 @@
       <c r="C97" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="21">
+      <c r="D97" s="8">
         <v>35</v>
       </c>
-      <c r="E97" s="19">
+      <c r="E97" s="16">
         <v>3</v>
       </c>
       <c r="F97" s="10"/>
@@ -4938,10 +4911,10 @@
       <c r="C98" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D98" s="20">
+      <c r="D98" s="5">
         <v>32</v>
       </c>
-      <c r="E98" s="18">
+      <c r="E98" s="11">
         <v>3</v>
       </c>
       <c r="F98" s="7"/>
@@ -4957,10 +4930,10 @@
       <c r="C99" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="5">
         <v>32</v>
       </c>
-      <c r="E99" s="18">
+      <c r="E99" s="11">
         <v>3</v>
       </c>
       <c r="F99" s="7"/>
@@ -4976,10 +4949,10 @@
       <c r="C100" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D100" s="20">
+      <c r="D100" s="5">
         <v>32</v>
       </c>
-      <c r="E100" s="18">
+      <c r="E100" s="11">
         <v>3</v>
       </c>
       <c r="F100" s="7"/>
@@ -4995,10 +4968,10 @@
       <c r="C101" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D101" s="20">
+      <c r="D101" s="5">
         <v>36</v>
       </c>
-      <c r="E101" s="18">
+      <c r="E101" s="11">
         <v>3</v>
       </c>
       <c r="F101" s="7"/>
@@ -5014,10 +4987,10 @@
       <c r="C102" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D102" s="20">
+      <c r="D102" s="5">
         <v>36</v>
       </c>
-      <c r="E102" s="18">
+      <c r="E102" s="11">
         <v>3</v>
       </c>
       <c r="F102" s="7"/>
@@ -5033,10 +5006,10 @@
       <c r="C103" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D103" s="21">
+      <c r="D103" s="8">
         <v>36</v>
       </c>
-      <c r="E103" s="19">
+      <c r="E103" s="16">
         <v>3</v>
       </c>
       <c r="F103" s="10"/>
@@ -5052,10 +5025,10 @@
       <c r="C104" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D104" s="20">
+      <c r="D104" s="5">
         <v>41</v>
       </c>
-      <c r="E104" s="18">
+      <c r="E104" s="11">
         <v>3</v>
       </c>
       <c r="F104" s="7"/>
@@ -5071,10 +5044,10 @@
       <c r="C105" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D105" s="20">
+      <c r="D105" s="5">
         <v>41</v>
       </c>
-      <c r="E105" s="18">
+      <c r="E105" s="11">
         <v>3</v>
       </c>
       <c r="F105" s="7"/>
@@ -5090,10 +5063,10 @@
       <c r="C106" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D106" s="20">
+      <c r="D106" s="5">
         <v>41</v>
       </c>
-      <c r="E106" s="18">
+      <c r="E106" s="11">
         <v>3</v>
       </c>
       <c r="F106" s="7"/>
@@ -5109,10 +5082,10 @@
       <c r="C107" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D107" s="20">
+      <c r="D107" s="5">
         <v>42</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="11">
         <v>3</v>
       </c>
       <c r="F107" s="7"/>
@@ -5128,10 +5101,10 @@
       <c r="C108" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D108" s="20">
+      <c r="D108" s="5">
         <v>42</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="11">
         <v>3</v>
       </c>
       <c r="F108" s="7"/>
@@ -5147,10 +5120,10 @@
       <c r="C109" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D109" s="20">
+      <c r="D109" s="5">
         <v>42</v>
       </c>
-      <c r="E109" s="18">
+      <c r="E109" s="11">
         <v>3</v>
       </c>
       <c r="F109" s="7"/>
@@ -5166,10 +5139,10 @@
       <c r="C110" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D110" s="20">
+      <c r="D110" s="5">
         <v>46</v>
       </c>
-      <c r="E110" s="18">
+      <c r="E110" s="11">
         <v>3</v>
       </c>
       <c r="F110" s="7"/>
@@ -5185,10 +5158,10 @@
       <c r="C111" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="20">
+      <c r="D111" s="5">
         <v>46</v>
       </c>
-      <c r="E111" s="18">
+      <c r="E111" s="11">
         <v>3</v>
       </c>
       <c r="F111" s="7"/>
@@ -5204,10 +5177,10 @@
       <c r="C112" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D112" s="20">
+      <c r="D112" s="5">
         <v>46</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="11">
         <v>3</v>
       </c>
       <c r="F112" s="7"/>
@@ -5223,10 +5196,10 @@
       <c r="C113" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D113" s="20">
+      <c r="D113" s="5">
         <v>45</v>
       </c>
-      <c r="E113" s="18">
+      <c r="E113" s="11">
         <v>3</v>
       </c>
       <c r="F113" s="7"/>
@@ -5242,10 +5215,10 @@
       <c r="C114" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D114" s="20">
+      <c r="D114" s="5">
         <v>45</v>
       </c>
-      <c r="E114" s="18">
+      <c r="E114" s="11">
         <v>3</v>
       </c>
       <c r="F114" s="7"/>
@@ -5261,10 +5234,10 @@
       <c r="C115" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D115" s="21">
+      <c r="D115" s="8">
         <v>45</v>
       </c>
-      <c r="E115" s="19">
+      <c r="E115" s="16">
         <v>3</v>
       </c>
       <c r="F115" s="10"/>
@@ -5280,10 +5253,10 @@
       <c r="C116" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D116" s="21">
+      <c r="D116" s="8">
         <v>5</v>
       </c>
-      <c r="E116" s="19">
+      <c r="E116" s="16">
         <v>5</v>
       </c>
       <c r="F116" s="10"/>
@@ -5299,10 +5272,10 @@
       <c r="C117" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D117" s="21">
+      <c r="D117" s="8">
         <v>5</v>
       </c>
-      <c r="E117" s="19">
+      <c r="E117" s="16">
         <v>5</v>
       </c>
       <c r="F117" s="10"/>
@@ -5318,10 +5291,10 @@
       <c r="C118" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D118" s="21">
+      <c r="D118" s="8">
         <v>5</v>
       </c>
-      <c r="E118" s="19">
+      <c r="E118" s="16">
         <v>5</v>
       </c>
       <c r="F118" s="10"/>
@@ -5337,10 +5310,10 @@
       <c r="C119" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D119" s="15" t="s">
+      <c r="D119" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="E119" s="19">
+      <c r="E119" s="16">
         <v>5</v>
       </c>
       <c r="F119" s="10"/>
@@ -5356,10 +5329,10 @@
       <c r="C120" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D120" s="15" t="s">
+      <c r="D120" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="E120" s="19">
+      <c r="E120" s="16">
         <v>5</v>
       </c>
       <c r="F120" s="10"/>
@@ -5375,10 +5348,10 @@
       <c r="C121" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D121" s="15" t="s">
+      <c r="D121" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="E121" s="19">
+      <c r="E121" s="16">
         <v>5</v>
       </c>
       <c r="F121" s="10"/>
@@ -5394,10 +5367,10 @@
       <c r="C122" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D122" s="15" t="s">
+      <c r="D122" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="E122" s="19">
+      <c r="E122" s="16">
         <v>5</v>
       </c>
       <c r="F122" s="10"/>
@@ -5413,10 +5386,10 @@
       <c r="C123" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D123" s="15" t="s">
+      <c r="D123" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="E123" s="19">
+      <c r="E123" s="16">
         <v>5</v>
       </c>
       <c r="F123" s="10" t="s">
@@ -5434,10 +5407,10 @@
       <c r="C124" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D124" s="15" t="s">
+      <c r="D124" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="E124" s="19">
+      <c r="E124" s="16">
         <v>5</v>
       </c>
       <c r="F124" s="10" t="s">
@@ -5455,10 +5428,10 @@
       <c r="C125" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D125" s="15" t="s">
+      <c r="D125" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="E125" s="19">
+      <c r="E125" s="16">
         <v>5</v>
       </c>
       <c r="F125" s="10"/>
@@ -5474,10 +5447,10 @@
       <c r="C126" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D126" s="15" t="s">
+      <c r="D126" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="E126" s="19">
+      <c r="E126" s="16">
         <v>5</v>
       </c>
       <c r="F126" s="10" t="s">
@@ -5495,7 +5468,7 @@
       <c r="C127" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D127" s="15" t="s">
+      <c r="D127" s="8" t="s">
         <v>656</v>
       </c>
       <c r="E127" s="16" t="s">
@@ -5514,10 +5487,10 @@
       <c r="C128" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D128" s="15" t="s">
+      <c r="D128" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="E128" s="19">
+      <c r="E128" s="16">
         <v>5</v>
       </c>
       <c r="F128" s="10"/>
@@ -5533,10 +5506,10 @@
       <c r="C129" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D129" s="15" t="s">
+      <c r="D129" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="E129" s="19">
+      <c r="E129" s="16">
         <v>5</v>
       </c>
       <c r="F129" s="10"/>
@@ -5552,10 +5525,10 @@
       <c r="C130" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D130" s="15" t="s">
+      <c r="D130" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="E130" s="19">
+      <c r="E130" s="16">
         <v>5</v>
       </c>
       <c r="F130" s="10"/>
@@ -5571,10 +5544,10 @@
       <c r="C131" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D131" s="15" t="s">
+      <c r="D131" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="E131" s="19">
+      <c r="E131" s="16">
         <v>5</v>
       </c>
       <c r="F131" s="10"/>
@@ -5590,10 +5563,10 @@
       <c r="C132" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D132" s="15" t="s">
+      <c r="D132" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="E132" s="19">
+      <c r="E132" s="16">
         <v>5</v>
       </c>
       <c r="F132" s="10"/>
@@ -5609,10 +5582,10 @@
       <c r="C133" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D133" s="15" t="s">
+      <c r="D133" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="E133" s="19">
+      <c r="E133" s="16">
         <v>5</v>
       </c>
       <c r="F133" s="10"/>
@@ -5624,8 +5597,8 @@
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="9"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="14"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="11"/>
       <c r="F134" s="10"/>
       <c r="G134" s="7"/>
     </row>
@@ -5635,8 +5608,8 @@
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="9"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="14"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="11"/>
       <c r="F135" s="10"/>
       <c r="G135" s="7"/>
     </row>
@@ -5646,8 +5619,8 @@
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="9"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="14"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="11"/>
       <c r="F136" s="10"/>
       <c r="G136" s="7"/>
     </row>
@@ -5661,10 +5634,10 @@
       <c r="C137" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D137" s="21">
+      <c r="D137" s="8">
         <v>56</v>
       </c>
-      <c r="E137" s="18">
+      <c r="E137" s="11">
         <v>6</v>
       </c>
       <c r="F137" s="10"/>
@@ -5680,10 +5653,10 @@
       <c r="C138" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D138" s="21">
+      <c r="D138" s="8">
         <v>56</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E138" s="11">
         <v>6</v>
       </c>
       <c r="F138" s="10"/>
@@ -5699,10 +5672,10 @@
       <c r="C139" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D139" s="21">
+      <c r="D139" s="8">
         <v>56</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="11">
         <v>6</v>
       </c>
       <c r="F139" s="10"/>
@@ -5718,10 +5691,10 @@
       <c r="C140" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D140" s="21">
+      <c r="D140" s="8">
         <v>57</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="11">
         <v>6</v>
       </c>
       <c r="F140" s="10"/>
@@ -5737,10 +5710,10 @@
       <c r="C141" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D141" s="21">
+      <c r="D141" s="8">
         <v>57</v>
       </c>
-      <c r="E141" s="18">
+      <c r="E141" s="11">
         <v>6</v>
       </c>
       <c r="F141" s="10"/>
@@ -5756,10 +5729,10 @@
       <c r="C142" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D142" s="21">
+      <c r="D142" s="8">
         <v>57</v>
       </c>
-      <c r="E142" s="18">
+      <c r="E142" s="11">
         <v>6</v>
       </c>
       <c r="F142" s="10"/>
@@ -5775,10 +5748,10 @@
       <c r="C143" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D143" s="21">
+      <c r="D143" s="8">
         <v>48</v>
       </c>
-      <c r="E143" s="18">
+      <c r="E143" s="11">
         <v>6</v>
       </c>
       <c r="F143" s="10"/>
@@ -5794,10 +5767,10 @@
       <c r="C144" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D144" s="21">
+      <c r="D144" s="8">
         <v>48</v>
       </c>
-      <c r="E144" s="18">
+      <c r="E144" s="11">
         <v>6</v>
       </c>
       <c r="F144" s="10"/>
@@ -5813,10 +5786,10 @@
       <c r="C145" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D145" s="21">
+      <c r="D145" s="8">
         <v>48</v>
       </c>
-      <c r="E145" s="19">
+      <c r="E145" s="16">
         <v>6</v>
       </c>
       <c r="F145" s="10"/>
@@ -5832,10 +5805,10 @@
       <c r="C146" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D146" s="21">
+      <c r="D146" s="8">
         <v>52</v>
       </c>
-      <c r="E146" s="18">
+      <c r="E146" s="11">
         <v>6</v>
       </c>
       <c r="F146" s="10"/>
@@ -5851,10 +5824,10 @@
       <c r="C147" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D147" s="21">
+      <c r="D147" s="8">
         <v>52</v>
       </c>
-      <c r="E147" s="18">
+      <c r="E147" s="11">
         <v>6</v>
       </c>
       <c r="F147" s="10"/>
@@ -5870,10 +5843,10 @@
       <c r="C148" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D148" s="21">
+      <c r="D148" s="8">
         <v>52</v>
       </c>
-      <c r="E148" s="19">
+      <c r="E148" s="16">
         <v>6</v>
       </c>
       <c r="F148" s="10"/>
@@ -5889,10 +5862,10 @@
       <c r="C149" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D149" s="21">
+      <c r="D149" s="8">
         <v>49</v>
       </c>
-      <c r="E149" s="18">
+      <c r="E149" s="11">
         <v>6</v>
       </c>
       <c r="F149" s="10"/>
@@ -5908,10 +5881,10 @@
       <c r="C150" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D150" s="21">
+      <c r="D150" s="8">
         <v>49</v>
       </c>
-      <c r="E150" s="18">
+      <c r="E150" s="11">
         <v>6</v>
       </c>
       <c r="F150" s="10"/>
@@ -5927,10 +5900,10 @@
       <c r="C151" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D151" s="21">
+      <c r="D151" s="8">
         <v>49</v>
       </c>
-      <c r="E151" s="18">
+      <c r="E151" s="11">
         <v>6</v>
       </c>
       <c r="F151" s="10"/>
@@ -5946,10 +5919,10 @@
       <c r="C152" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D152" s="21">
+      <c r="D152" s="8">
         <v>53</v>
       </c>
-      <c r="E152" s="18">
+      <c r="E152" s="11">
         <v>6</v>
       </c>
       <c r="F152" s="10"/>
@@ -5965,10 +5938,10 @@
       <c r="C153" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D153" s="21">
+      <c r="D153" s="8">
         <v>53</v>
       </c>
-      <c r="E153" s="18">
+      <c r="E153" s="11">
         <v>6</v>
       </c>
       <c r="F153" s="10"/>
@@ -5984,10 +5957,10 @@
       <c r="C154" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D154" s="21">
+      <c r="D154" s="8">
         <v>53</v>
       </c>
-      <c r="E154" s="18">
+      <c r="E154" s="11">
         <v>6</v>
       </c>
       <c r="F154" s="10"/>
@@ -6003,10 +5976,10 @@
       <c r="C155" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D155" s="21">
+      <c r="D155" s="8">
         <v>50</v>
       </c>
-      <c r="E155" s="18">
+      <c r="E155" s="11">
         <v>6</v>
       </c>
       <c r="F155" s="10"/>
@@ -6022,10 +5995,10 @@
       <c r="C156" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D156" s="21">
+      <c r="D156" s="8">
         <v>50</v>
       </c>
-      <c r="E156" s="18">
+      <c r="E156" s="11">
         <v>6</v>
       </c>
       <c r="F156" s="10"/>
@@ -6041,10 +6014,10 @@
       <c r="C157" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D157" s="21">
+      <c r="D157" s="8">
         <v>50</v>
       </c>
-      <c r="E157" s="18">
+      <c r="E157" s="11">
         <v>6</v>
       </c>
       <c r="F157" s="10"/>
@@ -6060,10 +6033,10 @@
       <c r="C158" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D158" s="21">
+      <c r="D158" s="8">
         <v>54</v>
       </c>
-      <c r="E158" s="18">
+      <c r="E158" s="11">
         <v>6</v>
       </c>
       <c r="F158" s="10"/>
@@ -6079,10 +6052,10 @@
       <c r="C159" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D159" s="21">
+      <c r="D159" s="8">
         <v>54</v>
       </c>
-      <c r="E159" s="18">
+      <c r="E159" s="11">
         <v>6</v>
       </c>
       <c r="F159" s="10"/>
@@ -6098,10 +6071,10 @@
       <c r="C160" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D160" s="21">
+      <c r="D160" s="8">
         <v>54</v>
       </c>
-      <c r="E160" s="18">
+      <c r="E160" s="11">
         <v>6</v>
       </c>
       <c r="F160" s="10"/>
@@ -6117,10 +6090,10 @@
       <c r="C161" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D161" s="21">
+      <c r="D161" s="8">
         <v>51</v>
       </c>
-      <c r="E161" s="18">
+      <c r="E161" s="11">
         <v>6</v>
       </c>
       <c r="F161" s="10"/>
@@ -6136,10 +6109,10 @@
       <c r="C162" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D162" s="21">
+      <c r="D162" s="8">
         <v>51</v>
       </c>
-      <c r="E162" s="18">
+      <c r="E162" s="11">
         <v>6</v>
       </c>
       <c r="F162" s="10"/>
@@ -6155,10 +6128,10 @@
       <c r="C163" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D163" s="21">
+      <c r="D163" s="8">
         <v>51</v>
       </c>
-      <c r="E163" s="18">
+      <c r="E163" s="11">
         <v>6</v>
       </c>
       <c r="F163" s="10"/>
@@ -6174,10 +6147,10 @@
       <c r="C164" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D164" s="21">
+      <c r="D164" s="8">
         <v>55</v>
       </c>
-      <c r="E164" s="18">
+      <c r="E164" s="11">
         <v>6</v>
       </c>
       <c r="F164" s="10"/>
@@ -6193,10 +6166,10 @@
       <c r="C165" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D165" s="21">
+      <c r="D165" s="8">
         <v>55</v>
       </c>
-      <c r="E165" s="18">
+      <c r="E165" s="11">
         <v>6</v>
       </c>
       <c r="F165" s="7"/>
@@ -6212,10 +6185,10 @@
       <c r="C166" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D166" s="21">
+      <c r="D166" s="8">
         <v>55</v>
       </c>
-      <c r="E166" s="18">
+      <c r="E166" s="11">
         <v>6</v>
       </c>
       <c r="F166" s="10"/>
@@ -6231,10 +6204,10 @@
       <c r="C167" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D167" s="21">
+      <c r="D167" s="8">
         <v>58</v>
       </c>
-      <c r="E167" s="18">
+      <c r="E167" s="11">
         <v>6</v>
       </c>
       <c r="F167" s="10"/>
@@ -6250,10 +6223,10 @@
       <c r="C168" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D168" s="21">
+      <c r="D168" s="8">
         <v>58</v>
       </c>
-      <c r="E168" s="18">
+      <c r="E168" s="11">
         <v>6</v>
       </c>
       <c r="F168" s="10"/>
@@ -6269,10 +6242,10 @@
       <c r="C169" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D169" s="21">
+      <c r="D169" s="8">
         <v>58</v>
       </c>
-      <c r="E169" s="18">
+      <c r="E169" s="11">
         <v>6</v>
       </c>
       <c r="F169" s="10"/>
@@ -6288,10 +6261,10 @@
       <c r="C170" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D170" s="21">
+      <c r="D170" s="8">
         <v>64</v>
       </c>
-      <c r="E170" s="18">
+      <c r="E170" s="11">
         <v>6</v>
       </c>
       <c r="F170" s="10"/>
@@ -6307,10 +6280,10 @@
       <c r="C171" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D171" s="21">
+      <c r="D171" s="8">
         <v>64</v>
       </c>
-      <c r="E171" s="18">
+      <c r="E171" s="11">
         <v>6</v>
       </c>
       <c r="F171" s="7"/>
@@ -6326,10 +6299,10 @@
       <c r="C172" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D172" s="21">
+      <c r="D172" s="8">
         <v>64</v>
       </c>
-      <c r="E172" s="18">
+      <c r="E172" s="11">
         <v>6</v>
       </c>
       <c r="F172" s="10"/>
@@ -6345,10 +6318,10 @@
       <c r="C173" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D173" s="21">
+      <c r="D173" s="8">
         <v>59</v>
       </c>
-      <c r="E173" s="18">
+      <c r="E173" s="11">
         <v>6</v>
       </c>
       <c r="F173" s="10"/>
@@ -6364,10 +6337,10 @@
       <c r="C174" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D174" s="21">
+      <c r="D174" s="8">
         <v>59</v>
       </c>
-      <c r="E174" s="18">
+      <c r="E174" s="11">
         <v>6</v>
       </c>
       <c r="F174" s="10"/>
@@ -6383,10 +6356,10 @@
       <c r="C175" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D175" s="21">
+      <c r="D175" s="8">
         <v>59</v>
       </c>
-      <c r="E175" s="18">
+      <c r="E175" s="11">
         <v>6</v>
       </c>
       <c r="F175" s="10"/>
@@ -6402,10 +6375,10 @@
       <c r="C176" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D176" s="21">
+      <c r="D176" s="8">
         <v>65</v>
       </c>
-      <c r="E176" s="18">
+      <c r="E176" s="11">
         <v>6</v>
       </c>
       <c r="F176" s="10"/>
@@ -6421,10 +6394,10 @@
       <c r="C177" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D177" s="21">
+      <c r="D177" s="8">
         <v>65</v>
       </c>
-      <c r="E177" s="18">
+      <c r="E177" s="11">
         <v>6</v>
       </c>
       <c r="F177" s="10"/>
@@ -6440,10 +6413,10 @@
       <c r="C178" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D178" s="21">
+      <c r="D178" s="8">
         <v>65</v>
       </c>
-      <c r="E178" s="18">
+      <c r="E178" s="11">
         <v>6</v>
       </c>
       <c r="F178" s="10"/>
@@ -6459,10 +6432,10 @@
       <c r="C179" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D179" s="20">
+      <c r="D179" s="5">
         <v>60</v>
       </c>
-      <c r="E179" s="18">
+      <c r="E179" s="11">
         <v>6</v>
       </c>
       <c r="F179" s="7"/>
@@ -6478,10 +6451,10 @@
       <c r="C180" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D180" s="20">
+      <c r="D180" s="5">
         <v>60</v>
       </c>
-      <c r="E180" s="18">
+      <c r="E180" s="11">
         <v>6</v>
       </c>
       <c r="F180" s="7"/>
@@ -6497,10 +6470,10 @@
       <c r="C181" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D181" s="20">
+      <c r="D181" s="5">
         <v>60</v>
       </c>
-      <c r="E181" s="18">
+      <c r="E181" s="11">
         <v>6</v>
       </c>
       <c r="F181" s="7"/>
@@ -6516,10 +6489,10 @@
       <c r="C182" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D182" s="20">
+      <c r="D182" s="5">
         <v>66</v>
       </c>
-      <c r="E182" s="18">
+      <c r="E182" s="11">
         <v>6</v>
       </c>
       <c r="F182" s="7"/>
@@ -6535,10 +6508,10 @@
       <c r="C183" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D183" s="20">
+      <c r="D183" s="5">
         <v>66</v>
       </c>
-      <c r="E183" s="18">
+      <c r="E183" s="11">
         <v>6</v>
       </c>
       <c r="F183" s="7"/>
@@ -6554,10 +6527,10 @@
       <c r="C184" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D184" s="20">
+      <c r="D184" s="5">
         <v>66</v>
       </c>
-      <c r="E184" s="18">
+      <c r="E184" s="11">
         <v>6</v>
       </c>
       <c r="F184" s="7"/>
@@ -6573,10 +6546,10 @@
       <c r="C185" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D185" s="20">
+      <c r="D185" s="5">
         <v>61</v>
       </c>
-      <c r="E185" s="18">
+      <c r="E185" s="11">
         <v>6</v>
       </c>
       <c r="F185" s="7"/>
@@ -6592,10 +6565,10 @@
       <c r="C186" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D186" s="20">
+      <c r="D186" s="5">
         <v>61</v>
       </c>
-      <c r="E186" s="18">
+      <c r="E186" s="11">
         <v>6</v>
       </c>
       <c r="F186" s="7"/>
@@ -6611,10 +6584,10 @@
       <c r="C187" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D187" s="20">
+      <c r="D187" s="5">
         <v>61</v>
       </c>
-      <c r="E187" s="18">
+      <c r="E187" s="11">
         <v>6</v>
       </c>
       <c r="F187" s="7"/>
@@ -6630,10 +6603,10 @@
       <c r="C188" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D188" s="20">
+      <c r="D188" s="5">
         <v>67</v>
       </c>
-      <c r="E188" s="18">
+      <c r="E188" s="11">
         <v>6</v>
       </c>
       <c r="F188" s="7"/>
@@ -6649,10 +6622,10 @@
       <c r="C189" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D189" s="20">
+      <c r="D189" s="5">
         <v>67</v>
       </c>
-      <c r="E189" s="18">
+      <c r="E189" s="11">
         <v>6</v>
       </c>
       <c r="F189" s="7"/>
@@ -6668,10 +6641,10 @@
       <c r="C190" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D190" s="20">
+      <c r="D190" s="5">
         <v>67</v>
       </c>
-      <c r="E190" s="18">
+      <c r="E190" s="11">
         <v>6</v>
       </c>
       <c r="F190" s="7"/>
@@ -6687,10 +6660,10 @@
       <c r="C191" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D191" s="20">
+      <c r="D191" s="5">
         <v>62</v>
       </c>
-      <c r="E191" s="18">
+      <c r="E191" s="11">
         <v>6</v>
       </c>
       <c r="F191" s="7"/>
@@ -6706,10 +6679,10 @@
       <c r="C192" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D192" s="21">
+      <c r="D192" s="8">
         <v>62</v>
       </c>
-      <c r="E192" s="19">
+      <c r="E192" s="16">
         <v>6</v>
       </c>
       <c r="F192" s="10"/>
@@ -6725,10 +6698,10 @@
       <c r="C193" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D193" s="20">
+      <c r="D193" s="5">
         <v>62</v>
       </c>
-      <c r="E193" s="18">
+      <c r="E193" s="11">
         <v>6</v>
       </c>
       <c r="F193" s="7"/>
@@ -6744,10 +6717,10 @@
       <c r="C194" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D194" s="21">
+      <c r="D194" s="8">
         <v>68</v>
       </c>
-      <c r="E194" s="19">
+      <c r="E194" s="16">
         <v>6</v>
       </c>
       <c r="F194" s="10"/>
@@ -6763,10 +6736,10 @@
       <c r="C195" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D195" s="21">
+      <c r="D195" s="8">
         <v>68</v>
       </c>
-      <c r="E195" s="19">
+      <c r="E195" s="16">
         <v>6</v>
       </c>
       <c r="F195" s="10"/>
@@ -6782,10 +6755,10 @@
       <c r="C196" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D196" s="20">
+      <c r="D196" s="5">
         <v>68</v>
       </c>
-      <c r="E196" s="18">
+      <c r="E196" s="11">
         <v>6</v>
       </c>
       <c r="F196" s="7"/>
@@ -6801,10 +6774,10 @@
       <c r="C197" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D197" s="20">
+      <c r="D197" s="5">
         <v>69</v>
       </c>
-      <c r="E197" s="18">
+      <c r="E197" s="11">
         <v>6</v>
       </c>
       <c r="F197" s="7"/>
@@ -6820,10 +6793,10 @@
       <c r="C198" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D198" s="20">
+      <c r="D198" s="5">
         <v>69</v>
       </c>
-      <c r="E198" s="18">
+      <c r="E198" s="11">
         <v>6</v>
       </c>
       <c r="F198" s="7"/>
@@ -6839,10 +6812,10 @@
       <c r="C199" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D199" s="21">
+      <c r="D199" s="8">
         <v>69</v>
       </c>
-      <c r="E199" s="19">
+      <c r="E199" s="16">
         <v>6</v>
       </c>
       <c r="F199" s="10"/>
@@ -6858,10 +6831,10 @@
       <c r="C200" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D200" s="20">
+      <c r="D200" s="5">
         <v>73</v>
       </c>
-      <c r="E200" s="18">
+      <c r="E200" s="11">
         <v>6</v>
       </c>
       <c r="F200" s="7"/>
@@ -6877,10 +6850,10 @@
       <c r="C201" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D201" s="20">
+      <c r="D201" s="5">
         <v>73</v>
       </c>
-      <c r="E201" s="18">
+      <c r="E201" s="11">
         <v>6</v>
       </c>
       <c r="F201" s="7"/>
@@ -6896,10 +6869,10 @@
       <c r="C202" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D202" s="21">
+      <c r="D202" s="8">
         <v>73</v>
       </c>
-      <c r="E202" s="19">
+      <c r="E202" s="16">
         <v>6</v>
       </c>
       <c r="F202" s="10"/>
@@ -6915,10 +6888,10 @@
       <c r="C203" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D203" s="20">
+      <c r="D203" s="5">
         <v>70</v>
       </c>
-      <c r="E203" s="18">
+      <c r="E203" s="11">
         <v>6</v>
       </c>
       <c r="F203" s="7"/>
@@ -6934,10 +6907,10 @@
       <c r="C204" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D204" s="20">
+      <c r="D204" s="5">
         <v>70</v>
       </c>
-      <c r="E204" s="18">
+      <c r="E204" s="11">
         <v>6</v>
       </c>
       <c r="F204" s="7"/>
@@ -6953,10 +6926,10 @@
       <c r="C205" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D205" s="20">
+      <c r="D205" s="5">
         <v>70</v>
       </c>
-      <c r="E205" s="18">
+      <c r="E205" s="11">
         <v>6</v>
       </c>
       <c r="F205" s="7"/>
@@ -6972,10 +6945,10 @@
       <c r="C206" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D206" s="20">
+      <c r="D206" s="5">
         <v>74</v>
       </c>
-      <c r="E206" s="18">
+      <c r="E206" s="11">
         <v>6</v>
       </c>
       <c r="F206" s="7"/>
@@ -6991,10 +6964,10 @@
       <c r="C207" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D207" s="20">
+      <c r="D207" s="5">
         <v>74</v>
       </c>
-      <c r="E207" s="18">
+      <c r="E207" s="11">
         <v>6</v>
       </c>
       <c r="F207" s="7"/>
@@ -7010,10 +6983,10 @@
       <c r="C208" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D208" s="21">
+      <c r="D208" s="8">
         <v>74</v>
       </c>
-      <c r="E208" s="19">
+      <c r="E208" s="16">
         <v>6</v>
       </c>
       <c r="F208" s="10"/>
@@ -7029,10 +7002,10 @@
       <c r="C209" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D209" s="20">
+      <c r="D209" s="5">
         <v>71</v>
       </c>
-      <c r="E209" s="18">
+      <c r="E209" s="11">
         <v>6</v>
       </c>
       <c r="F209" s="7"/>
@@ -7048,10 +7021,10 @@
       <c r="C210" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D210" s="20">
+      <c r="D210" s="5">
         <v>71</v>
       </c>
-      <c r="E210" s="18">
+      <c r="E210" s="11">
         <v>6</v>
       </c>
       <c r="F210" s="7"/>
@@ -7067,10 +7040,10 @@
       <c r="C211" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D211" s="21">
+      <c r="D211" s="8">
         <v>71</v>
       </c>
-      <c r="E211" s="19">
+      <c r="E211" s="16">
         <v>6</v>
       </c>
       <c r="F211" s="10"/>
@@ -7086,10 +7059,10 @@
       <c r="C212" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D212" s="20">
+      <c r="D212" s="5">
         <v>75</v>
       </c>
-      <c r="E212" s="18">
+      <c r="E212" s="11">
         <v>6</v>
       </c>
       <c r="F212" s="7"/>
@@ -7105,10 +7078,10 @@
       <c r="C213" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D213" s="20">
+      <c r="D213" s="5">
         <v>75</v>
       </c>
-      <c r="E213" s="18">
+      <c r="E213" s="11">
         <v>6</v>
       </c>
       <c r="F213" s="7"/>
@@ -7124,10 +7097,10 @@
       <c r="C214" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D214" s="21">
+      <c r="D214" s="8">
         <v>75</v>
       </c>
-      <c r="E214" s="19">
+      <c r="E214" s="16">
         <v>6</v>
       </c>
       <c r="F214" s="10"/>
@@ -7143,10 +7116,10 @@
       <c r="C215" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D215" s="20">
+      <c r="D215" s="5">
         <v>72</v>
       </c>
-      <c r="E215" s="18">
+      <c r="E215" s="11">
         <v>6</v>
       </c>
       <c r="F215" s="7"/>
@@ -7162,10 +7135,10 @@
       <c r="C216" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D216" s="20">
+      <c r="D216" s="5">
         <v>72</v>
       </c>
-      <c r="E216" s="18">
+      <c r="E216" s="11">
         <v>6</v>
       </c>
       <c r="F216" s="7"/>
@@ -7181,10 +7154,10 @@
       <c r="C217" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D217" s="20">
+      <c r="D217" s="5">
         <v>72</v>
       </c>
-      <c r="E217" s="18">
+      <c r="E217" s="11">
         <v>6</v>
       </c>
       <c r="F217" s="7"/>
@@ -7200,10 +7173,10 @@
       <c r="C218" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D218" s="20">
+      <c r="D218" s="5">
         <v>76</v>
       </c>
-      <c r="E218" s="18">
+      <c r="E218" s="11">
         <v>6</v>
       </c>
       <c r="F218" s="7"/>
@@ -7219,10 +7192,10 @@
       <c r="C219" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D219" s="20">
+      <c r="D219" s="5">
         <v>76</v>
       </c>
-      <c r="E219" s="18">
+      <c r="E219" s="11">
         <v>6</v>
       </c>
       <c r="F219" s="7"/>
@@ -7238,10 +7211,10 @@
       <c r="C220" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D220" s="20">
+      <c r="D220" s="5">
         <v>76</v>
       </c>
-      <c r="E220" s="18">
+      <c r="E220" s="11">
         <v>6</v>
       </c>
       <c r="F220" s="7"/>
@@ -7257,10 +7230,10 @@
       <c r="C221" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D221" s="20">
+      <c r="D221" s="5">
         <v>77</v>
       </c>
-      <c r="E221" s="18">
+      <c r="E221" s="11">
         <v>7</v>
       </c>
       <c r="F221" s="7"/>
@@ -7276,10 +7249,10 @@
       <c r="C222" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D222" s="20">
+      <c r="D222" s="5">
         <v>77</v>
       </c>
-      <c r="E222" s="18">
+      <c r="E222" s="11">
         <v>7</v>
       </c>
       <c r="F222" s="7"/>
@@ -7295,10 +7268,10 @@
       <c r="C223" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D223" s="20">
+      <c r="D223" s="5">
         <v>77</v>
       </c>
-      <c r="E223" s="18">
+      <c r="E223" s="11">
         <v>7</v>
       </c>
       <c r="F223" s="7"/>
@@ -7314,10 +7287,10 @@
       <c r="C224" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D224" s="20">
+      <c r="D224" s="5">
         <v>78</v>
       </c>
-      <c r="E224" s="18">
+      <c r="E224" s="11">
         <v>7</v>
       </c>
       <c r="F224" s="7"/>
@@ -7333,10 +7306,10 @@
       <c r="C225" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D225" s="20">
+      <c r="D225" s="5">
         <v>78</v>
       </c>
-      <c r="E225" s="18">
+      <c r="E225" s="11">
         <v>7</v>
       </c>
       <c r="F225" s="7"/>
@@ -7352,10 +7325,10 @@
       <c r="C226" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D226" s="20">
+      <c r="D226" s="5">
         <v>78</v>
       </c>
-      <c r="E226" s="18">
+      <c r="E226" s="11">
         <v>7</v>
       </c>
       <c r="F226" s="7"/>
@@ -7371,10 +7344,10 @@
       <c r="C227" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D227" s="20">
+      <c r="D227" s="5">
         <v>79</v>
       </c>
-      <c r="E227" s="18">
+      <c r="E227" s="11">
         <v>7</v>
       </c>
       <c r="F227" s="7"/>
@@ -7390,10 +7363,10 @@
       <c r="C228" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D228" s="20">
+      <c r="D228" s="5">
         <v>79</v>
       </c>
-      <c r="E228" s="18">
+      <c r="E228" s="11">
         <v>7</v>
       </c>
       <c r="F228" s="7"/>
@@ -7409,10 +7382,10 @@
       <c r="C229" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D229" s="20">
+      <c r="D229" s="5">
         <v>79</v>
       </c>
-      <c r="E229" s="18">
+      <c r="E229" s="11">
         <v>7</v>
       </c>
       <c r="F229" s="7"/>
@@ -7428,10 +7401,10 @@
       <c r="C230" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D230" s="20">
+      <c r="D230" s="5">
         <v>80</v>
       </c>
-      <c r="E230" s="18">
+      <c r="E230" s="11">
         <v>7</v>
       </c>
       <c r="F230" s="7"/>
@@ -7447,10 +7420,10 @@
       <c r="C231" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D231" s="20">
+      <c r="D231" s="5">
         <v>80</v>
       </c>
-      <c r="E231" s="18">
+      <c r="E231" s="11">
         <v>7</v>
       </c>
       <c r="F231" s="7"/>
@@ -7466,10 +7439,10 @@
       <c r="C232" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D232" s="20">
+      <c r="D232" s="5">
         <v>80</v>
       </c>
-      <c r="E232" s="18">
+      <c r="E232" s="11">
         <v>7</v>
       </c>
       <c r="F232" s="7"/>
@@ -7485,10 +7458,10 @@
       <c r="C233" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D233" s="20">
+      <c r="D233" s="5">
         <v>81</v>
       </c>
-      <c r="E233" s="18">
+      <c r="E233" s="11">
         <v>7</v>
       </c>
       <c r="F233" s="7"/>
@@ -7504,10 +7477,10 @@
       <c r="C234" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D234" s="20">
+      <c r="D234" s="5">
         <v>81</v>
       </c>
-      <c r="E234" s="18">
+      <c r="E234" s="11">
         <v>7</v>
       </c>
       <c r="F234" s="7"/>
@@ -7523,10 +7496,10 @@
       <c r="C235" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D235" s="20">
+      <c r="D235" s="5">
         <v>81</v>
       </c>
-      <c r="E235" s="18">
+      <c r="E235" s="11">
         <v>7</v>
       </c>
       <c r="F235" s="7"/>
@@ -7542,10 +7515,10 @@
       <c r="C236" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D236" s="20">
+      <c r="D236" s="5">
         <v>82</v>
       </c>
-      <c r="E236" s="18">
+      <c r="E236" s="11">
         <v>7</v>
       </c>
       <c r="F236" s="7"/>
@@ -7561,10 +7534,10 @@
       <c r="C237" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D237" s="20">
+      <c r="D237" s="5">
         <v>82</v>
       </c>
-      <c r="E237" s="18">
+      <c r="E237" s="11">
         <v>7</v>
       </c>
       <c r="F237" s="7"/>
@@ -7580,10 +7553,10 @@
       <c r="C238" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D238" s="20">
+      <c r="D238" s="5">
         <v>82</v>
       </c>
-      <c r="E238" s="18">
+      <c r="E238" s="11">
         <v>7</v>
       </c>
       <c r="F238" s="7"/>
@@ -7599,10 +7572,10 @@
       <c r="C239" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D239" s="20">
+      <c r="D239" s="5">
         <v>83</v>
       </c>
-      <c r="E239" s="18">
+      <c r="E239" s="11">
         <v>7</v>
       </c>
       <c r="F239" s="7"/>
@@ -7618,10 +7591,10 @@
       <c r="C240" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D240" s="20">
+      <c r="D240" s="5">
         <v>83</v>
       </c>
-      <c r="E240" s="18">
+      <c r="E240" s="11">
         <v>7</v>
       </c>
       <c r="F240" s="7"/>
@@ -7637,10 +7610,10 @@
       <c r="C241" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D241" s="21">
+      <c r="D241" s="8">
         <v>83</v>
       </c>
-      <c r="E241" s="19">
+      <c r="E241" s="16">
         <v>7</v>
       </c>
       <c r="F241" s="10"/>
@@ -7656,10 +7629,10 @@
       <c r="C242" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D242" s="21">
+      <c r="D242" s="8">
         <v>89</v>
       </c>
-      <c r="E242" s="19">
+      <c r="E242" s="16">
         <v>7</v>
       </c>
       <c r="F242" s="10"/>
@@ -7675,10 +7648,10 @@
       <c r="C243" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D243" s="20">
+      <c r="D243" s="5">
         <v>89</v>
       </c>
-      <c r="E243" s="18">
+      <c r="E243" s="11">
         <v>7</v>
       </c>
       <c r="F243" s="7"/>
@@ -7694,10 +7667,10 @@
       <c r="C244" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D244" s="20">
+      <c r="D244" s="5">
         <v>89</v>
       </c>
-      <c r="E244" s="18">
+      <c r="E244" s="11">
         <v>7</v>
       </c>
       <c r="F244" s="7"/>
@@ -7713,10 +7686,10 @@
       <c r="C245" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D245" s="20">
+      <c r="D245" s="5">
         <v>84</v>
       </c>
-      <c r="E245" s="18">
+      <c r="E245" s="11">
         <v>7</v>
       </c>
       <c r="F245" s="7"/>
@@ -7732,10 +7705,10 @@
       <c r="C246" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D246" s="20">
+      <c r="D246" s="5">
         <v>84</v>
       </c>
-      <c r="E246" s="18">
+      <c r="E246" s="11">
         <v>7</v>
       </c>
       <c r="F246" s="7"/>
@@ -7751,10 +7724,10 @@
       <c r="C247" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D247" s="20">
+      <c r="D247" s="5">
         <v>84</v>
       </c>
-      <c r="E247" s="18">
+      <c r="E247" s="11">
         <v>7</v>
       </c>
       <c r="F247" s="7"/>
@@ -7770,10 +7743,10 @@
       <c r="C248" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D248" s="20">
+      <c r="D248" s="5">
         <v>90</v>
       </c>
-      <c r="E248" s="18">
+      <c r="E248" s="11">
         <v>7</v>
       </c>
       <c r="F248" s="7"/>
@@ -7789,10 +7762,10 @@
       <c r="C249" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D249" s="20">
+      <c r="D249" s="5">
         <v>90</v>
       </c>
-      <c r="E249" s="18">
+      <c r="E249" s="11">
         <v>7</v>
       </c>
       <c r="F249" s="7"/>
@@ -7808,10 +7781,10 @@
       <c r="C250" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D250" s="20">
+      <c r="D250" s="5">
         <v>90</v>
       </c>
-      <c r="E250" s="18">
+      <c r="E250" s="11">
         <v>7</v>
       </c>
       <c r="F250" s="7"/>
@@ -7827,10 +7800,10 @@
       <c r="C251" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D251" s="20">
+      <c r="D251" s="5">
         <v>85</v>
       </c>
-      <c r="E251" s="18">
+      <c r="E251" s="11">
         <v>7</v>
       </c>
       <c r="F251" s="7"/>
@@ -7846,10 +7819,10 @@
       <c r="C252" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D252" s="20">
+      <c r="D252" s="5">
         <v>85</v>
       </c>
-      <c r="E252" s="18">
+      <c r="E252" s="11">
         <v>7</v>
       </c>
       <c r="F252" s="7"/>
@@ -7865,10 +7838,10 @@
       <c r="C253" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D253" s="20">
+      <c r="D253" s="5">
         <v>85</v>
       </c>
-      <c r="E253" s="18">
+      <c r="E253" s="11">
         <v>7</v>
       </c>
       <c r="F253" s="7"/>
@@ -7884,10 +7857,10 @@
       <c r="C254" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D254" s="20">
+      <c r="D254" s="5">
         <v>91</v>
       </c>
-      <c r="E254" s="18">
+      <c r="E254" s="11">
         <v>7</v>
       </c>
       <c r="F254" s="7"/>
@@ -7903,10 +7876,10 @@
       <c r="C255" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D255" s="20">
+      <c r="D255" s="5">
         <v>91</v>
       </c>
-      <c r="E255" s="18">
+      <c r="E255" s="11">
         <v>7</v>
       </c>
       <c r="F255" s="7"/>
@@ -7922,10 +7895,10 @@
       <c r="C256" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D256" s="20">
+      <c r="D256" s="5">
         <v>91</v>
       </c>
-      <c r="E256" s="18">
+      <c r="E256" s="11">
         <v>7</v>
       </c>
       <c r="F256" s="7"/>
@@ -7941,10 +7914,10 @@
       <c r="C257" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D257" s="20">
+      <c r="D257" s="5">
         <v>86</v>
       </c>
-      <c r="E257" s="18">
+      <c r="E257" s="11">
         <v>7</v>
       </c>
       <c r="F257" s="7"/>
@@ -7960,10 +7933,10 @@
       <c r="C258" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D258" s="20">
+      <c r="D258" s="5">
         <v>86</v>
       </c>
-      <c r="E258" s="18">
+      <c r="E258" s="11">
         <v>7</v>
       </c>
       <c r="F258" s="7"/>
@@ -7979,10 +7952,10 @@
       <c r="C259" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D259" s="20">
+      <c r="D259" s="5">
         <v>86</v>
       </c>
-      <c r="E259" s="18">
+      <c r="E259" s="11">
         <v>7</v>
       </c>
       <c r="F259" s="7"/>
@@ -7998,10 +7971,10 @@
       <c r="C260" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D260" s="20">
+      <c r="D260" s="5">
         <v>92</v>
       </c>
-      <c r="E260" s="18">
+      <c r="E260" s="11">
         <v>7</v>
       </c>
       <c r="F260" s="7"/>
@@ -8017,10 +7990,10 @@
       <c r="C261" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D261" s="20">
+      <c r="D261" s="5">
         <v>92</v>
       </c>
-      <c r="E261" s="18">
+      <c r="E261" s="11">
         <v>7</v>
       </c>
       <c r="F261" s="7"/>
@@ -8036,10 +8009,10 @@
       <c r="C262" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D262" s="20">
+      <c r="D262" s="5">
         <v>92</v>
       </c>
-      <c r="E262" s="18">
+      <c r="E262" s="11">
         <v>7</v>
       </c>
       <c r="F262" s="7"/>
@@ -8055,10 +8028,10 @@
       <c r="C263" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D263" s="20">
+      <c r="D263" s="5">
         <v>87</v>
       </c>
-      <c r="E263" s="18">
+      <c r="E263" s="11">
         <v>7</v>
       </c>
       <c r="F263" s="7"/>
@@ -8074,10 +8047,10 @@
       <c r="C264" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D264" s="20">
+      <c r="D264" s="5">
         <v>87</v>
       </c>
-      <c r="E264" s="18">
+      <c r="E264" s="11">
         <v>7</v>
       </c>
       <c r="F264" s="7"/>
@@ -8093,10 +8066,10 @@
       <c r="C265" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D265" s="20">
+      <c r="D265" s="5">
         <v>87</v>
       </c>
-      <c r="E265" s="18">
+      <c r="E265" s="11">
         <v>7</v>
       </c>
       <c r="F265" s="7"/>
@@ -8112,10 +8085,10 @@
       <c r="C266" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D266" s="20">
+      <c r="D266" s="5">
         <v>93</v>
       </c>
-      <c r="E266" s="18">
+      <c r="E266" s="11">
         <v>7</v>
       </c>
       <c r="F266" s="7"/>
@@ -8131,10 +8104,10 @@
       <c r="C267" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D267" s="20">
+      <c r="D267" s="5">
         <v>93</v>
       </c>
-      <c r="E267" s="18">
+      <c r="E267" s="11">
         <v>7</v>
       </c>
       <c r="F267" s="7"/>
@@ -8150,10 +8123,10 @@
       <c r="C268" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D268" s="20">
+      <c r="D268" s="5">
         <v>93</v>
       </c>
-      <c r="E268" s="18">
+      <c r="E268" s="11">
         <v>7</v>
       </c>
       <c r="F268" s="7"/>
@@ -8169,10 +8142,10 @@
       <c r="C269" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D269" s="20">
+      <c r="D269" s="5">
         <v>88</v>
       </c>
-      <c r="E269" s="18">
+      <c r="E269" s="11">
         <v>7</v>
       </c>
       <c r="F269" s="7"/>
@@ -8188,10 +8161,10 @@
       <c r="C270" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D270" s="20">
+      <c r="D270" s="5">
         <v>88</v>
       </c>
-      <c r="E270" s="18">
+      <c r="E270" s="11">
         <v>7</v>
       </c>
       <c r="F270" s="7"/>
@@ -8207,10 +8180,10 @@
       <c r="C271" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D271" s="20">
+      <c r="D271" s="5">
         <v>88</v>
       </c>
-      <c r="E271" s="18">
+      <c r="E271" s="11">
         <v>7</v>
       </c>
       <c r="F271" s="7"/>
@@ -8226,10 +8199,10 @@
       <c r="C272" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D272" s="20">
+      <c r="D272" s="5">
         <v>94</v>
       </c>
-      <c r="E272" s="18">
+      <c r="E272" s="11">
         <v>7</v>
       </c>
       <c r="F272" s="7"/>
@@ -8245,10 +8218,10 @@
       <c r="C273" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D273" s="20">
+      <c r="D273" s="5">
         <v>94</v>
       </c>
-      <c r="E273" s="18">
+      <c r="E273" s="11">
         <v>7</v>
       </c>
       <c r="F273" s="7"/>
@@ -8264,10 +8237,10 @@
       <c r="C274" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D274" s="20">
+      <c r="D274" s="5">
         <v>94</v>
       </c>
-      <c r="E274" s="18">
+      <c r="E274" s="11">
         <v>7</v>
       </c>
       <c r="F274" s="7"/>
@@ -8283,7 +8256,7 @@
       <c r="C275" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D275" s="15" t="s">
+      <c r="D275" s="8" t="s">
         <v>658</v>
       </c>
       <c r="E275" s="16" t="s">
@@ -8302,10 +8275,10 @@
       <c r="C276" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D276" s="13" t="s">
+      <c r="D276" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="E276" s="14" t="s">
+      <c r="E276" s="11" t="s">
         <v>141</v>
       </c>
       <c r="F276" s="7"/>
@@ -8321,7 +8294,7 @@
       <c r="C277" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D277" s="15" t="s">
+      <c r="D277" s="8" t="s">
         <v>658</v>
       </c>
       <c r="E277" s="16" t="s">
@@ -8340,7 +8313,7 @@
       <c r="C278" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D278" s="15" t="s">
+      <c r="D278" s="8" t="s">
         <v>659</v>
       </c>
       <c r="E278" s="16" t="s">
@@ -8359,7 +8332,7 @@
       <c r="C279" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D279" s="15" t="s">
+      <c r="D279" s="8" t="s">
         <v>659</v>
       </c>
       <c r="E279" s="16" t="s">
@@ -8378,10 +8351,10 @@
       <c r="C280" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D280" s="13" t="s">
+      <c r="D280" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="E280" s="14" t="s">
+      <c r="E280" s="11" t="s">
         <v>141</v>
       </c>
       <c r="F280" s="7"/>
@@ -8397,10 +8370,10 @@
       <c r="C281" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D281" s="20">
+      <c r="D281" s="5">
         <v>95</v>
       </c>
-      <c r="E281" s="18">
+      <c r="E281" s="11">
         <v>7</v>
       </c>
       <c r="F281" s="7"/>
@@ -8416,10 +8389,10 @@
       <c r="C282" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D282" s="20">
+      <c r="D282" s="5">
         <v>95</v>
       </c>
-      <c r="E282" s="18">
+      <c r="E282" s="11">
         <v>7</v>
       </c>
       <c r="F282" s="7"/>
@@ -8435,10 +8408,10 @@
       <c r="C283" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D283" s="20">
+      <c r="D283" s="5">
         <v>95</v>
       </c>
-      <c r="E283" s="18">
+      <c r="E283" s="11">
         <v>7</v>
       </c>
       <c r="F283" s="7"/>
@@ -8454,10 +8427,10 @@
       <c r="C284" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D284" s="20">
+      <c r="D284" s="5">
         <v>98</v>
       </c>
-      <c r="E284" s="18">
+      <c r="E284" s="11">
         <v>7</v>
       </c>
       <c r="F284" s="7"/>
@@ -8473,10 +8446,10 @@
       <c r="C285" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D285" s="20">
+      <c r="D285" s="5">
         <v>98</v>
       </c>
-      <c r="E285" s="18">
+      <c r="E285" s="11">
         <v>7</v>
       </c>
       <c r="F285" s="7"/>
@@ -8492,10 +8465,10 @@
       <c r="C286" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D286" s="21">
+      <c r="D286" s="8">
         <v>98</v>
       </c>
-      <c r="E286" s="19">
+      <c r="E286" s="16">
         <v>7</v>
       </c>
       <c r="F286" s="10"/>
@@ -8511,10 +8484,10 @@
       <c r="C287" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D287" s="20">
+      <c r="D287" s="5">
         <v>96</v>
       </c>
-      <c r="E287" s="18">
+      <c r="E287" s="11">
         <v>7</v>
       </c>
       <c r="F287" s="7"/>
@@ -8530,10 +8503,10 @@
       <c r="C288" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D288" s="20">
+      <c r="D288" s="5">
         <v>96</v>
       </c>
-      <c r="E288" s="18">
+      <c r="E288" s="11">
         <v>7</v>
       </c>
       <c r="F288" s="7"/>
@@ -8549,10 +8522,10 @@
       <c r="C289" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D289" s="20">
+      <c r="D289" s="5">
         <v>96</v>
       </c>
-      <c r="E289" s="18">
+      <c r="E289" s="11">
         <v>7</v>
       </c>
       <c r="F289" s="7"/>
@@ -8568,10 +8541,10 @@
       <c r="C290" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D290" s="20">
+      <c r="D290" s="5">
         <v>99</v>
       </c>
-      <c r="E290" s="18">
+      <c r="E290" s="11">
         <v>7</v>
       </c>
       <c r="F290" s="7"/>
@@ -8587,10 +8560,10 @@
       <c r="C291" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D291" s="20">
+      <c r="D291" s="5">
         <v>99</v>
       </c>
-      <c r="E291" s="18">
+      <c r="E291" s="11">
         <v>7</v>
       </c>
       <c r="F291" s="7"/>
@@ -8606,10 +8579,10 @@
       <c r="C292" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D292" s="20">
+      <c r="D292" s="5">
         <v>99</v>
       </c>
-      <c r="E292" s="18">
+      <c r="E292" s="11">
         <v>7</v>
       </c>
       <c r="F292" s="7"/>
@@ -8625,10 +8598,10 @@
       <c r="C293" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D293" s="20">
+      <c r="D293" s="5">
         <v>97</v>
       </c>
-      <c r="E293" s="18">
+      <c r="E293" s="11">
         <v>7</v>
       </c>
       <c r="F293" s="7"/>
@@ -8644,10 +8617,10 @@
       <c r="C294" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D294" s="20">
+      <c r="D294" s="5">
         <v>97</v>
       </c>
-      <c r="E294" s="18">
+      <c r="E294" s="11">
         <v>7</v>
       </c>
       <c r="F294" s="7"/>
@@ -8663,10 +8636,10 @@
       <c r="C295" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D295" s="20">
+      <c r="D295" s="5">
         <v>97</v>
       </c>
-      <c r="E295" s="18">
+      <c r="E295" s="11">
         <v>7</v>
       </c>
       <c r="F295" s="7"/>
@@ -8682,10 +8655,10 @@
       <c r="C296" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D296" s="20">
+      <c r="D296" s="5">
         <v>100</v>
       </c>
-      <c r="E296" s="18">
+      <c r="E296" s="11">
         <v>7</v>
       </c>
       <c r="F296" s="7"/>
@@ -8701,10 +8674,10 @@
       <c r="C297" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D297" s="20">
+      <c r="D297" s="5">
         <v>100</v>
       </c>
-      <c r="E297" s="18">
+      <c r="E297" s="11">
         <v>7</v>
       </c>
       <c r="F297" s="7"/>
@@ -8720,10 +8693,10 @@
       <c r="C298" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D298" s="20">
+      <c r="D298" s="5">
         <v>100</v>
       </c>
-      <c r="E298" s="18">
+      <c r="E298" s="11">
         <v>7</v>
       </c>
       <c r="F298" s="7"/>
@@ -8739,10 +8712,10 @@
       <c r="C299" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D299" s="21">
+      <c r="D299" s="8">
         <v>101</v>
       </c>
-      <c r="E299" s="19">
+      <c r="E299" s="16">
         <v>8</v>
       </c>
       <c r="F299" s="7"/>
@@ -8758,10 +8731,10 @@
       <c r="C300" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D300" s="21">
+      <c r="D300" s="8">
         <v>101</v>
       </c>
-      <c r="E300" s="19">
+      <c r="E300" s="16">
         <v>8</v>
       </c>
       <c r="F300" s="7"/>
@@ -8777,10 +8750,10 @@
       <c r="C301" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D301" s="21">
+      <c r="D301" s="8">
         <v>101</v>
       </c>
-      <c r="E301" s="19">
+      <c r="E301" s="16">
         <v>8</v>
       </c>
       <c r="F301" s="7"/>
@@ -8796,10 +8769,10 @@
       <c r="C302" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D302" s="21">
+      <c r="D302" s="8">
         <v>101</v>
       </c>
-      <c r="E302" s="19">
+      <c r="E302" s="16">
         <v>8</v>
       </c>
       <c r="F302" s="7"/>
@@ -8815,10 +8788,10 @@
       <c r="C303" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D303" s="21">
+      <c r="D303" s="8">
         <v>102</v>
       </c>
-      <c r="E303" s="19">
+      <c r="E303" s="16">
         <v>8</v>
       </c>
       <c r="F303" s="7"/>
@@ -8834,10 +8807,10 @@
       <c r="C304" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D304" s="21">
+      <c r="D304" s="8">
         <v>102</v>
       </c>
-      <c r="E304" s="19">
+      <c r="E304" s="16">
         <v>8</v>
       </c>
       <c r="F304" s="7"/>
@@ -8853,7 +8826,7 @@
       <c r="C305" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D305" s="21">
+      <c r="D305" s="8">
         <v>103</v>
       </c>
       <c r="E305" s="16" t="s">
@@ -8872,7 +8845,7 @@
       <c r="C306" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D306" s="21">
+      <c r="D306" s="8">
         <v>103</v>
       </c>
       <c r="E306" s="16" t="s">
@@ -8891,7 +8864,7 @@
       <c r="C307" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D307" s="21">
+      <c r="D307" s="8">
         <v>103</v>
       </c>
       <c r="E307" s="16" t="s">
@@ -8910,7 +8883,7 @@
       <c r="C308" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D308" s="21">
+      <c r="D308" s="8">
         <v>103</v>
       </c>
       <c r="E308" s="16" t="s">
@@ -8929,7 +8902,7 @@
       <c r="C309" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D309" s="21">
+      <c r="D309" s="8">
         <v>103</v>
       </c>
       <c r="E309" s="16" t="s">
@@ -8948,7 +8921,7 @@
       <c r="C310" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D310" s="21">
+      <c r="D310" s="8">
         <v>104</v>
       </c>
       <c r="E310" s="16" t="s">
@@ -8967,7 +8940,7 @@
       <c r="C311" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D311" s="21">
+      <c r="D311" s="8">
         <v>104</v>
       </c>
       <c r="E311" s="16" t="s">
@@ -8986,7 +8959,7 @@
       <c r="C312" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D312" s="21">
+      <c r="D312" s="8">
         <v>104</v>
       </c>
       <c r="E312" s="16" t="s">
@@ -9005,7 +8978,7 @@
       <c r="C313" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D313" s="21">
+      <c r="D313" s="8">
         <v>105</v>
       </c>
       <c r="E313" s="16" t="s">
@@ -9024,7 +8997,7 @@
       <c r="C314" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D314" s="21">
+      <c r="D314" s="8">
         <v>105</v>
       </c>
       <c r="E314" s="16" t="s">
@@ -9043,7 +9016,7 @@
       <c r="C315" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D315" s="21">
+      <c r="D315" s="8">
         <v>105</v>
       </c>
       <c r="E315" s="16" t="s">
@@ -9062,7 +9035,7 @@
       <c r="C316" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D316" s="21">
+      <c r="D316" s="8">
         <v>106</v>
       </c>
       <c r="E316" s="16" t="s">
@@ -9081,7 +9054,7 @@
       <c r="C317" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D317" s="21">
+      <c r="D317" s="8">
         <v>106</v>
       </c>
       <c r="E317" s="16" t="s">
@@ -9100,7 +9073,7 @@
       <c r="C318" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D318" s="21">
+      <c r="D318" s="8">
         <v>106</v>
       </c>
       <c r="E318" s="16" t="s">
@@ -9119,10 +9092,10 @@
       <c r="C319" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D319" s="21">
+      <c r="D319" s="8">
         <v>107</v>
       </c>
-      <c r="E319" s="19">
+      <c r="E319" s="16">
         <v>9</v>
       </c>
       <c r="F319" s="7"/>
@@ -9138,10 +9111,10 @@
       <c r="C320" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D320" s="21">
+      <c r="D320" s="8">
         <v>107</v>
       </c>
-      <c r="E320" s="19">
+      <c r="E320" s="16">
         <v>9</v>
       </c>
       <c r="F320" s="7"/>
@@ -9157,10 +9130,10 @@
       <c r="C321" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D321" s="21">
+      <c r="D321" s="8">
         <v>107</v>
       </c>
-      <c r="E321" s="19">
+      <c r="E321" s="16">
         <v>9</v>
       </c>
       <c r="F321" s="7"/>
@@ -9176,10 +9149,10 @@
       <c r="C322" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D322" s="21">
+      <c r="D322" s="8">
         <v>108</v>
       </c>
-      <c r="E322" s="19">
+      <c r="E322" s="16">
         <v>9</v>
       </c>
       <c r="F322" s="7"/>
@@ -9195,10 +9168,10 @@
       <c r="C323" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D323" s="21">
+      <c r="D323" s="8">
         <v>108</v>
       </c>
-      <c r="E323" s="19">
+      <c r="E323" s="16">
         <v>9</v>
       </c>
       <c r="F323" s="7"/>
@@ -9214,10 +9187,10 @@
       <c r="C324" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D324" s="21">
+      <c r="D324" s="8">
         <v>108</v>
       </c>
-      <c r="E324" s="19">
+      <c r="E324" s="16">
         <v>9</v>
       </c>
       <c r="F324" s="10"/>
@@ -9233,10 +9206,10 @@
       <c r="C325" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D325" s="21">
+      <c r="D325" s="8">
         <v>109</v>
       </c>
-      <c r="E325" s="19">
+      <c r="E325" s="16">
         <v>9</v>
       </c>
       <c r="F325" s="10"/>
@@ -9252,10 +9225,10 @@
       <c r="C326" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D326" s="21">
+      <c r="D326" s="8">
         <v>109</v>
       </c>
-      <c r="E326" s="19">
+      <c r="E326" s="16">
         <v>9</v>
       </c>
       <c r="F326" s="7"/>
@@ -9271,10 +9244,10 @@
       <c r="C327" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D327" s="21">
+      <c r="D327" s="8">
         <v>109</v>
       </c>
-      <c r="E327" s="19">
+      <c r="E327" s="16">
         <v>9</v>
       </c>
       <c r="F327" s="7"/>
@@ -9290,7 +9263,7 @@
       <c r="C328" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D328" s="15" t="s">
+      <c r="D328" s="8" t="s">
         <v>816</v>
       </c>
       <c r="E328" s="16" t="s">
@@ -9309,7 +9282,7 @@
       <c r="C329" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D329" s="15" t="s">
+      <c r="D329" s="8" t="s">
         <v>816</v>
       </c>
       <c r="E329" s="16" t="s">
@@ -9328,7 +9301,7 @@
       <c r="C330" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D330" s="15" t="s">
+      <c r="D330" s="8" t="s">
         <v>816</v>
       </c>
       <c r="E330" s="16" t="s">
@@ -9347,10 +9320,10 @@
       <c r="C331" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D331" s="15" t="s">
+      <c r="D331" s="8" t="s">
         <v>843</v>
       </c>
-      <c r="E331" s="19">
+      <c r="E331" s="16">
         <v>11</v>
       </c>
       <c r="F331" s="10"/>
@@ -9366,10 +9339,10 @@
       <c r="C332" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D332" s="15" t="s">
+      <c r="D332" s="8" t="s">
         <v>843</v>
       </c>
-      <c r="E332" s="19">
+      <c r="E332" s="16">
         <v>11</v>
       </c>
       <c r="F332" s="10"/>
@@ -9385,10 +9358,10 @@
       <c r="C333" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D333" s="15" t="s">
+      <c r="D333" s="8" t="s">
         <v>843</v>
       </c>
-      <c r="E333" s="19">
+      <c r="E333" s="16">
         <v>11</v>
       </c>
       <c r="F333" s="10"/>
@@ -9404,7 +9377,7 @@
       <c r="C334" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D334" s="15" t="s">
+      <c r="D334" s="8" t="s">
         <v>836</v>
       </c>
       <c r="E334" s="16" t="s">
@@ -9423,7 +9396,7 @@
       <c r="C335" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D335" s="15" t="s">
+      <c r="D335" s="8" t="s">
         <v>836</v>
       </c>
       <c r="E335" s="16" t="s">
@@ -9442,7 +9415,7 @@
       <c r="C336" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D336" s="15" t="s">
+      <c r="D336" s="8" t="s">
         <v>836</v>
       </c>
       <c r="E336" s="16" t="s">
@@ -9461,7 +9434,7 @@
       <c r="C337" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D337" s="15" t="s">
+      <c r="D337" s="8" t="s">
         <v>837</v>
       </c>
       <c r="E337" s="16" t="s">
@@ -9480,7 +9453,7 @@
       <c r="C338" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D338" s="15" t="s">
+      <c r="D338" s="8" t="s">
         <v>837</v>
       </c>
       <c r="E338" s="16" t="s">
@@ -9499,7 +9472,7 @@
       <c r="C339" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D339" s="15" t="s">
+      <c r="D339" s="8" t="s">
         <v>837</v>
       </c>
       <c r="E339" s="16" t="s">
@@ -9518,7 +9491,7 @@
       <c r="C340" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D340" s="15" t="s">
+      <c r="D340" s="8" t="s">
         <v>837</v>
       </c>
       <c r="E340" s="16" t="s">
@@ -9537,7 +9510,7 @@
       <c r="C341" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D341" s="15" t="s">
+      <c r="D341" s="8" t="s">
         <v>839</v>
       </c>
       <c r="E341" s="16" t="s">
@@ -9556,7 +9529,7 @@
       <c r="C342" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D342" s="15" t="s">
+      <c r="D342" s="8" t="s">
         <v>839</v>
       </c>
       <c r="E342" s="16" t="s">
@@ -9575,7 +9548,7 @@
       <c r="C343" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D343" s="15" t="s">
+      <c r="D343" s="8" t="s">
         <v>839</v>
       </c>
       <c r="E343" s="16" t="s">
@@ -9594,7 +9567,7 @@
       <c r="C344" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D344" s="15" t="s">
+      <c r="D344" s="8" t="s">
         <v>839</v>
       </c>
       <c r="E344" s="16" t="s">
@@ -9613,7 +9586,7 @@
       <c r="C345" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D345" s="15" t="s">
+      <c r="D345" s="8" t="s">
         <v>838</v>
       </c>
       <c r="E345" s="16" t="s">
@@ -9632,7 +9605,7 @@
       <c r="C346" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D346" s="15" t="s">
+      <c r="D346" s="8" t="s">
         <v>838</v>
       </c>
       <c r="E346" s="16" t="s">
@@ -9651,7 +9624,7 @@
       <c r="C347" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D347" s="15" t="s">
+      <c r="D347" s="8" t="s">
         <v>838</v>
       </c>
       <c r="E347" s="16" t="s">
@@ -9670,7 +9643,7 @@
       <c r="C348" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D348" s="15" t="s">
+      <c r="D348" s="8" t="s">
         <v>838</v>
       </c>
       <c r="E348" s="16" t="s">
@@ -9689,10 +9662,10 @@
       <c r="C349" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D349" s="21">
+      <c r="D349" s="8">
         <v>162</v>
       </c>
-      <c r="E349" s="19">
+      <c r="E349" s="16">
         <v>25</v>
       </c>
       <c r="F349" s="7"/>
@@ -9708,10 +9681,10 @@
       <c r="C350" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D350" s="21">
+      <c r="D350" s="8">
         <v>162</v>
       </c>
-      <c r="E350" s="19">
+      <c r="E350" s="16">
         <v>25</v>
       </c>
       <c r="F350" s="7"/>
@@ -9727,10 +9700,10 @@
       <c r="C351" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D351" s="21">
+      <c r="D351" s="8">
         <v>162</v>
       </c>
-      <c r="E351" s="19">
+      <c r="E351" s="16">
         <v>25</v>
       </c>
       <c r="F351" s="7"/>
@@ -9746,10 +9719,10 @@
       <c r="C352" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D352" s="21">
+      <c r="D352" s="8">
         <v>166</v>
       </c>
-      <c r="E352" s="19">
+      <c r="E352" s="16">
         <v>25</v>
       </c>
       <c r="F352" s="7"/>
@@ -9765,10 +9738,10 @@
       <c r="C353" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D353" s="21">
+      <c r="D353" s="8">
         <v>166</v>
       </c>
-      <c r="E353" s="19">
+      <c r="E353" s="16">
         <v>25</v>
       </c>
       <c r="F353" s="7"/>
@@ -9784,10 +9757,10 @@
       <c r="C354" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D354" s="21">
+      <c r="D354" s="8">
         <v>166</v>
       </c>
-      <c r="E354" s="19">
+      <c r="E354" s="16">
         <v>25</v>
       </c>
       <c r="F354" s="7"/>
@@ -9803,10 +9776,10 @@
       <c r="C355" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D355" s="21">
+      <c r="D355" s="8">
         <v>163</v>
       </c>
-      <c r="E355" s="19">
+      <c r="E355" s="16">
         <v>25</v>
       </c>
       <c r="F355" s="10"/>
@@ -9822,10 +9795,10 @@
       <c r="C356" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D356" s="21">
+      <c r="D356" s="8">
         <v>163</v>
       </c>
-      <c r="E356" s="19">
+      <c r="E356" s="16">
         <v>25</v>
       </c>
       <c r="F356" s="7"/>
@@ -9841,10 +9814,10 @@
       <c r="C357" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D357" s="21">
+      <c r="D357" s="8">
         <v>163</v>
       </c>
-      <c r="E357" s="19">
+      <c r="E357" s="16">
         <v>25</v>
       </c>
       <c r="F357" s="10"/>
@@ -9860,10 +9833,10 @@
       <c r="C358" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D358" s="21">
+      <c r="D358" s="8">
         <v>167</v>
       </c>
-      <c r="E358" s="19">
+      <c r="E358" s="16">
         <v>25</v>
       </c>
       <c r="F358" s="10"/>
@@ -9879,10 +9852,10 @@
       <c r="C359" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D359" s="21">
+      <c r="D359" s="8">
         <v>167</v>
       </c>
-      <c r="E359" s="19">
+      <c r="E359" s="16">
         <v>25</v>
       </c>
       <c r="F359" s="10"/>
@@ -9898,10 +9871,10 @@
       <c r="C360" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D360" s="21">
+      <c r="D360" s="8">
         <v>167</v>
       </c>
-      <c r="E360" s="19">
+      <c r="E360" s="16">
         <v>25</v>
       </c>
       <c r="F360" s="10"/>
@@ -9917,10 +9890,10 @@
       <c r="C361" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D361" s="21">
+      <c r="D361" s="8">
         <v>164</v>
       </c>
-      <c r="E361" s="19">
+      <c r="E361" s="16">
         <v>25</v>
       </c>
       <c r="F361" s="10"/>
@@ -9936,10 +9909,10 @@
       <c r="C362" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D362" s="21">
+      <c r="D362" s="8">
         <v>164</v>
       </c>
-      <c r="E362" s="19">
+      <c r="E362" s="16">
         <v>25</v>
       </c>
       <c r="F362" s="10"/>
@@ -9955,10 +9928,10 @@
       <c r="C363" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D363" s="21">
+      <c r="D363" s="8">
         <v>164</v>
       </c>
-      <c r="E363" s="19">
+      <c r="E363" s="16">
         <v>25</v>
       </c>
       <c r="F363" s="10"/>
@@ -9974,10 +9947,10 @@
       <c r="C364" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D364" s="21">
+      <c r="D364" s="8">
         <v>168</v>
       </c>
-      <c r="E364" s="19">
+      <c r="E364" s="16">
         <v>25</v>
       </c>
       <c r="F364" s="10"/>
@@ -9993,10 +9966,10 @@
       <c r="C365" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D365" s="21">
+      <c r="D365" s="8">
         <v>168</v>
       </c>
-      <c r="E365" s="19">
+      <c r="E365" s="16">
         <v>25</v>
       </c>
       <c r="F365" s="10"/>
@@ -10012,10 +9985,10 @@
       <c r="C366" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D366" s="21">
+      <c r="D366" s="8">
         <v>168</v>
       </c>
-      <c r="E366" s="19">
+      <c r="E366" s="16">
         <v>25</v>
       </c>
       <c r="F366" s="10"/>
@@ -10031,10 +10004,10 @@
       <c r="C367" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D367" s="21">
+      <c r="D367" s="8">
         <v>165</v>
       </c>
-      <c r="E367" s="19">
+      <c r="E367" s="16">
         <v>25</v>
       </c>
       <c r="F367" s="10"/>
@@ -10050,10 +10023,10 @@
       <c r="C368" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D368" s="21">
+      <c r="D368" s="8">
         <v>165</v>
       </c>
-      <c r="E368" s="19">
+      <c r="E368" s="16">
         <v>25</v>
       </c>
       <c r="F368" s="10"/>
@@ -10069,10 +10042,10 @@
       <c r="C369" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D369" s="21">
+      <c r="D369" s="8">
         <v>165</v>
       </c>
-      <c r="E369" s="19">
+      <c r="E369" s="16">
         <v>25</v>
       </c>
       <c r="F369" s="10"/>
@@ -10088,10 +10061,10 @@
       <c r="C370" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D370" s="21">
+      <c r="D370" s="8">
         <v>169</v>
       </c>
-      <c r="E370" s="19">
+      <c r="E370" s="16">
         <v>25</v>
       </c>
       <c r="F370" s="10"/>
@@ -10107,10 +10080,10 @@
       <c r="C371" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D371" s="21">
+      <c r="D371" s="8">
         <v>169</v>
       </c>
-      <c r="E371" s="19">
+      <c r="E371" s="16">
         <v>25</v>
       </c>
       <c r="F371" s="10"/>
@@ -10126,10 +10099,10 @@
       <c r="C372" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D372" s="21">
+      <c r="D372" s="8">
         <v>169</v>
       </c>
-      <c r="E372" s="19">
+      <c r="E372" s="16">
         <v>25</v>
       </c>
       <c r="F372" s="10"/>
@@ -10145,10 +10118,10 @@
       <c r="C373" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D373" s="21">
+      <c r="D373" s="8">
         <v>154</v>
       </c>
-      <c r="E373" s="19">
+      <c r="E373" s="16">
         <v>25</v>
       </c>
       <c r="F373" s="10"/>
@@ -10164,10 +10137,10 @@
       <c r="C374" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D374" s="21">
+      <c r="D374" s="8">
         <v>154</v>
       </c>
-      <c r="E374" s="19">
+      <c r="E374" s="16">
         <v>25</v>
       </c>
       <c r="F374" s="10"/>
@@ -10183,10 +10156,10 @@
       <c r="C375" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D375" s="21">
+      <c r="D375" s="8">
         <v>154</v>
       </c>
-      <c r="E375" s="19">
+      <c r="E375" s="16">
         <v>25</v>
       </c>
       <c r="F375" s="10"/>
@@ -10202,10 +10175,10 @@
       <c r="C376" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D376" s="21">
+      <c r="D376" s="8">
         <v>158</v>
       </c>
-      <c r="E376" s="19">
+      <c r="E376" s="16">
         <v>25</v>
       </c>
       <c r="F376" s="10"/>
@@ -10221,10 +10194,10 @@
       <c r="C377" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D377" s="21">
+      <c r="D377" s="8">
         <v>158</v>
       </c>
-      <c r="E377" s="19">
+      <c r="E377" s="16">
         <v>25</v>
       </c>
       <c r="F377" s="10"/>
@@ -10240,10 +10213,10 @@
       <c r="C378" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D378" s="21">
+      <c r="D378" s="8">
         <v>158</v>
       </c>
-      <c r="E378" s="19">
+      <c r="E378" s="16">
         <v>25</v>
       </c>
       <c r="F378" s="10"/>
@@ -10259,10 +10232,10 @@
       <c r="C379" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D379" s="21">
+      <c r="D379" s="8">
         <v>155</v>
       </c>
-      <c r="E379" s="19">
+      <c r="E379" s="16">
         <v>25</v>
       </c>
       <c r="F379" s="10"/>
@@ -10278,10 +10251,10 @@
       <c r="C380" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D380" s="21">
+      <c r="D380" s="8">
         <v>155</v>
       </c>
-      <c r="E380" s="19">
+      <c r="E380" s="16">
         <v>25</v>
       </c>
       <c r="F380" s="10"/>
@@ -10297,10 +10270,10 @@
       <c r="C381" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D381" s="21">
+      <c r="D381" s="8">
         <v>155</v>
       </c>
-      <c r="E381" s="19">
+      <c r="E381" s="16">
         <v>25</v>
       </c>
       <c r="F381" s="10"/>
@@ -10316,10 +10289,10 @@
       <c r="C382" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D382" s="21">
+      <c r="D382" s="8">
         <v>159</v>
       </c>
-      <c r="E382" s="19">
+      <c r="E382" s="16">
         <v>25</v>
       </c>
       <c r="F382" s="10"/>
@@ -10335,10 +10308,10 @@
       <c r="C383" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D383" s="21">
+      <c r="D383" s="8">
         <v>159</v>
       </c>
-      <c r="E383" s="19">
+      <c r="E383" s="16">
         <v>25</v>
       </c>
       <c r="F383" s="10"/>
@@ -10354,10 +10327,10 @@
       <c r="C384" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D384" s="21">
+      <c r="D384" s="8">
         <v>159</v>
       </c>
-      <c r="E384" s="19">
+      <c r="E384" s="16">
         <v>25</v>
       </c>
       <c r="F384" s="10"/>
@@ -10373,10 +10346,10 @@
       <c r="C385" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D385" s="21">
+      <c r="D385" s="8">
         <v>156</v>
       </c>
-      <c r="E385" s="19">
+      <c r="E385" s="16">
         <v>25</v>
       </c>
       <c r="F385" s="10"/>
@@ -10392,10 +10365,10 @@
       <c r="C386" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D386" s="21">
+      <c r="D386" s="8">
         <v>156</v>
       </c>
-      <c r="E386" s="19">
+      <c r="E386" s="16">
         <v>25</v>
       </c>
       <c r="F386" s="10"/>
@@ -10411,10 +10384,10 @@
       <c r="C387" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D387" s="21">
+      <c r="D387" s="8">
         <v>156</v>
       </c>
-      <c r="E387" s="19">
+      <c r="E387" s="16">
         <v>25</v>
       </c>
       <c r="F387" s="10"/>
@@ -10430,10 +10403,10 @@
       <c r="C388" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D388" s="21">
+      <c r="D388" s="8">
         <v>160</v>
       </c>
-      <c r="E388" s="19">
+      <c r="E388" s="16">
         <v>25</v>
       </c>
       <c r="F388" s="10"/>
@@ -10449,10 +10422,10 @@
       <c r="C389" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D389" s="21">
+      <c r="D389" s="8">
         <v>160</v>
       </c>
-      <c r="E389" s="19">
+      <c r="E389" s="16">
         <v>25</v>
       </c>
       <c r="F389" s="10"/>
@@ -10468,10 +10441,10 @@
       <c r="C390" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D390" s="21">
+      <c r="D390" s="8">
         <v>160</v>
       </c>
-      <c r="E390" s="19">
+      <c r="E390" s="16">
         <v>25</v>
       </c>
       <c r="F390" s="10"/>
@@ -10487,10 +10460,10 @@
       <c r="C391" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D391" s="21">
+      <c r="D391" s="8">
         <v>157</v>
       </c>
-      <c r="E391" s="19">
+      <c r="E391" s="16">
         <v>25</v>
       </c>
       <c r="F391" s="10"/>
@@ -10506,10 +10479,10 @@
       <c r="C392" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D392" s="21">
+      <c r="D392" s="8">
         <v>157</v>
       </c>
-      <c r="E392" s="19">
+      <c r="E392" s="16">
         <v>25</v>
       </c>
       <c r="F392" s="10"/>
@@ -10525,10 +10498,10 @@
       <c r="C393" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D393" s="21">
+      <c r="D393" s="8">
         <v>157</v>
       </c>
-      <c r="E393" s="19">
+      <c r="E393" s="16">
         <v>25</v>
       </c>
       <c r="F393" s="10"/>
@@ -10544,10 +10517,10 @@
       <c r="C394" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D394" s="21">
+      <c r="D394" s="8">
         <v>161</v>
       </c>
-      <c r="E394" s="19">
+      <c r="E394" s="16">
         <v>25</v>
       </c>
       <c r="F394" s="10"/>
@@ -10563,10 +10536,10 @@
       <c r="C395" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D395" s="21">
+      <c r="D395" s="8">
         <v>161</v>
       </c>
-      <c r="E395" s="19">
+      <c r="E395" s="16">
         <v>25</v>
       </c>
       <c r="F395" s="10"/>
@@ -10582,10 +10555,10 @@
       <c r="C396" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D396" s="21">
+      <c r="D396" s="8">
         <v>161</v>
       </c>
-      <c r="E396" s="19">
+      <c r="E396" s="16">
         <v>25</v>
       </c>
       <c r="F396" s="10"/>
@@ -10601,10 +10574,10 @@
       <c r="C397" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D397" s="21">
+      <c r="D397" s="8">
         <v>146</v>
       </c>
-      <c r="E397" s="19">
+      <c r="E397" s="16">
         <v>25</v>
       </c>
       <c r="F397" s="10"/>
@@ -10620,10 +10593,10 @@
       <c r="C398" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D398" s="21">
+      <c r="D398" s="8">
         <v>146</v>
       </c>
-      <c r="E398" s="19">
+      <c r="E398" s="16">
         <v>25</v>
       </c>
       <c r="F398" s="10"/>
@@ -10639,10 +10612,10 @@
       <c r="C399" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D399" s="21">
+      <c r="D399" s="8">
         <v>146</v>
       </c>
-      <c r="E399" s="19">
+      <c r="E399" s="16">
         <v>25</v>
       </c>
       <c r="F399" s="10"/>
@@ -10658,10 +10631,10 @@
       <c r="C400" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D400" s="21">
+      <c r="D400" s="8">
         <v>150</v>
       </c>
-      <c r="E400" s="19">
+      <c r="E400" s="16">
         <v>25</v>
       </c>
       <c r="F400" s="10"/>
@@ -10677,10 +10650,10 @@
       <c r="C401" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D401" s="21">
+      <c r="D401" s="8">
         <v>150</v>
       </c>
-      <c r="E401" s="19">
+      <c r="E401" s="16">
         <v>25</v>
       </c>
       <c r="F401" s="10"/>
@@ -10696,10 +10669,10 @@
       <c r="C402" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D402" s="21">
+      <c r="D402" s="8">
         <v>150</v>
       </c>
-      <c r="E402" s="19">
+      <c r="E402" s="16">
         <v>25</v>
       </c>
       <c r="F402" s="10"/>
@@ -10715,10 +10688,10 @@
       <c r="C403" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D403" s="21">
+      <c r="D403" s="8">
         <v>147</v>
       </c>
-      <c r="E403" s="19">
+      <c r="E403" s="16">
         <v>25</v>
       </c>
       <c r="F403" s="10"/>
@@ -10734,10 +10707,10 @@
       <c r="C404" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D404" s="21">
+      <c r="D404" s="8">
         <v>147</v>
       </c>
-      <c r="E404" s="19">
+      <c r="E404" s="16">
         <v>25</v>
       </c>
       <c r="F404" s="10"/>
@@ -10753,10 +10726,10 @@
       <c r="C405" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D405" s="21">
+      <c r="D405" s="8">
         <v>147</v>
       </c>
-      <c r="E405" s="19">
+      <c r="E405" s="16">
         <v>25</v>
       </c>
       <c r="F405" s="10"/>
@@ -10772,10 +10745,10 @@
       <c r="C406" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D406" s="21">
+      <c r="D406" s="8">
         <v>151</v>
       </c>
-      <c r="E406" s="19">
+      <c r="E406" s="16">
         <v>25</v>
       </c>
       <c r="F406" s="10"/>
@@ -10791,10 +10764,10 @@
       <c r="C407" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D407" s="21">
+      <c r="D407" s="8">
         <v>151</v>
       </c>
-      <c r="E407" s="19">
+      <c r="E407" s="16">
         <v>25</v>
       </c>
       <c r="F407" s="10"/>
@@ -10810,10 +10783,10 @@
       <c r="C408" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D408" s="21">
+      <c r="D408" s="8">
         <v>151</v>
       </c>
-      <c r="E408" s="19">
+      <c r="E408" s="16">
         <v>25</v>
       </c>
       <c r="F408" s="10"/>
@@ -10829,10 +10802,10 @@
       <c r="C409" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D409" s="21">
+      <c r="D409" s="8">
         <v>148</v>
       </c>
-      <c r="E409" s="19">
+      <c r="E409" s="16">
         <v>25</v>
       </c>
       <c r="F409" s="10"/>
@@ -10848,10 +10821,10 @@
       <c r="C410" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D410" s="21">
+      <c r="D410" s="8">
         <v>148</v>
       </c>
-      <c r="E410" s="19">
+      <c r="E410" s="16">
         <v>25</v>
       </c>
       <c r="F410" s="10"/>
@@ -10867,10 +10840,10 @@
       <c r="C411" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D411" s="21">
+      <c r="D411" s="8">
         <v>148</v>
       </c>
-      <c r="E411" s="19">
+      <c r="E411" s="16">
         <v>25</v>
       </c>
       <c r="F411" s="10"/>
@@ -10886,10 +10859,10 @@
       <c r="C412" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D412" s="21">
+      <c r="D412" s="8">
         <v>152</v>
       </c>
-      <c r="E412" s="19">
+      <c r="E412" s="16">
         <v>25</v>
       </c>
       <c r="F412" s="10"/>
@@ -10905,10 +10878,10 @@
       <c r="C413" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D413" s="21">
+      <c r="D413" s="8">
         <v>152</v>
       </c>
-      <c r="E413" s="19">
+      <c r="E413" s="16">
         <v>25</v>
       </c>
       <c r="F413" s="10"/>
@@ -10924,10 +10897,10 @@
       <c r="C414" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D414" s="21">
+      <c r="D414" s="8">
         <v>152</v>
       </c>
-      <c r="E414" s="19">
+      <c r="E414" s="16">
         <v>25</v>
       </c>
       <c r="F414" s="10"/>
@@ -10943,10 +10916,10 @@
       <c r="C415" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D415" s="21">
+      <c r="D415" s="8">
         <v>149</v>
       </c>
-      <c r="E415" s="19">
+      <c r="E415" s="16">
         <v>25</v>
       </c>
       <c r="F415" s="10"/>
@@ -10962,10 +10935,10 @@
       <c r="C416" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D416" s="21">
+      <c r="D416" s="8">
         <v>149</v>
       </c>
-      <c r="E416" s="19">
+      <c r="E416" s="16">
         <v>25</v>
       </c>
       <c r="F416" s="10"/>
@@ -10981,10 +10954,10 @@
       <c r="C417" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D417" s="21">
+      <c r="D417" s="8">
         <v>149</v>
       </c>
-      <c r="E417" s="19">
+      <c r="E417" s="16">
         <v>25</v>
       </c>
       <c r="F417" s="10" t="s">
@@ -11002,10 +10975,10 @@
       <c r="C418" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D418" s="21">
+      <c r="D418" s="8">
         <v>153</v>
       </c>
-      <c r="E418" s="19">
+      <c r="E418" s="16">
         <v>25</v>
       </c>
       <c r="F418" s="10"/>
@@ -11021,10 +10994,10 @@
       <c r="C419" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D419" s="21">
+      <c r="D419" s="8">
         <v>153</v>
       </c>
-      <c r="E419" s="19">
+      <c r="E419" s="16">
         <v>25</v>
       </c>
       <c r="F419" s="10"/>
@@ -11040,10 +11013,10 @@
       <c r="C420" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D420" s="21">
+      <c r="D420" s="8">
         <v>153</v>
       </c>
-      <c r="E420" s="19">
+      <c r="E420" s="16">
         <v>25</v>
       </c>
       <c r="F420" s="10"/>
@@ -11059,10 +11032,10 @@
       <c r="C421" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D421" s="21">
+      <c r="D421" s="8">
         <v>144</v>
       </c>
-      <c r="E421" s="19">
+      <c r="E421" s="16">
         <v>24</v>
       </c>
       <c r="F421" s="10"/>
@@ -11078,10 +11051,10 @@
       <c r="C422" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D422" s="21">
+      <c r="D422" s="8">
         <v>144</v>
       </c>
-      <c r="E422" s="19">
+      <c r="E422" s="16">
         <v>24</v>
       </c>
       <c r="F422" s="7"/>
@@ -11097,10 +11070,10 @@
       <c r="C423" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D423" s="21">
+      <c r="D423" s="8">
         <v>144</v>
       </c>
-      <c r="E423" s="19">
+      <c r="E423" s="16">
         <v>24</v>
       </c>
       <c r="F423" s="10" t="s">
@@ -11118,10 +11091,10 @@
       <c r="C424" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D424" s="21">
+      <c r="D424" s="8">
         <v>145</v>
       </c>
-      <c r="E424" s="19">
+      <c r="E424" s="16">
         <v>24</v>
       </c>
       <c r="F424" s="7"/>
@@ -11137,10 +11110,10 @@
       <c r="C425" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D425" s="21">
+      <c r="D425" s="8">
         <v>145</v>
       </c>
-      <c r="E425" s="19">
+      <c r="E425" s="16">
         <v>24</v>
       </c>
       <c r="F425" s="7"/>
@@ -11156,10 +11129,10 @@
       <c r="C426" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D426" s="21">
+      <c r="D426" s="8">
         <v>145</v>
       </c>
-      <c r="E426" s="19">
+      <c r="E426" s="16">
         <v>24</v>
       </c>
       <c r="F426" s="10" t="s">
@@ -11177,10 +11150,10 @@
       <c r="C427" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D427" s="21">
+      <c r="D427" s="8">
         <v>136</v>
       </c>
-      <c r="E427" s="19">
+      <c r="E427" s="16">
         <v>24</v>
       </c>
       <c r="F427" s="7"/>
@@ -11196,10 +11169,10 @@
       <c r="C428" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D428" s="21">
+      <c r="D428" s="8">
         <v>136</v>
       </c>
-      <c r="E428" s="19">
+      <c r="E428" s="16">
         <v>24</v>
       </c>
       <c r="F428" s="7"/>
@@ -11215,10 +11188,10 @@
       <c r="C429" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D429" s="21">
+      <c r="D429" s="8">
         <v>136</v>
       </c>
-      <c r="E429" s="19">
+      <c r="E429" s="16">
         <v>24</v>
       </c>
       <c r="F429" s="7"/>
@@ -11234,10 +11207,10 @@
       <c r="C430" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D430" s="21">
+      <c r="D430" s="8">
         <v>140</v>
       </c>
-      <c r="E430" s="19">
+      <c r="E430" s="16">
         <v>24</v>
       </c>
       <c r="F430" s="7"/>
@@ -11253,10 +11226,10 @@
       <c r="C431" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D431" s="21">
+      <c r="D431" s="8">
         <v>140</v>
       </c>
-      <c r="E431" s="19">
+      <c r="E431" s="16">
         <v>24</v>
       </c>
       <c r="F431" s="7"/>
@@ -11272,10 +11245,10 @@
       <c r="C432" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D432" s="21">
+      <c r="D432" s="8">
         <v>140</v>
       </c>
-      <c r="E432" s="19">
+      <c r="E432" s="16">
         <v>24</v>
       </c>
       <c r="F432" s="7"/>
@@ -11291,10 +11264,10 @@
       <c r="C433" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D433" s="21">
+      <c r="D433" s="8">
         <v>137</v>
       </c>
-      <c r="E433" s="19">
+      <c r="E433" s="16">
         <v>24</v>
       </c>
       <c r="F433" s="10"/>
@@ -11310,10 +11283,10 @@
       <c r="C434" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D434" s="21">
+      <c r="D434" s="8">
         <v>137</v>
       </c>
-      <c r="E434" s="19">
+      <c r="E434" s="16">
         <v>24</v>
       </c>
       <c r="F434" s="7"/>
@@ -11329,10 +11302,10 @@
       <c r="C435" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D435" s="21">
+      <c r="D435" s="8">
         <v>137</v>
       </c>
-      <c r="E435" s="19">
+      <c r="E435" s="16">
         <v>24</v>
       </c>
       <c r="F435" s="7"/>
@@ -11348,10 +11321,10 @@
       <c r="C436" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D436" s="21">
+      <c r="D436" s="8">
         <v>141</v>
       </c>
-      <c r="E436" s="19">
+      <c r="E436" s="16">
         <v>24</v>
       </c>
       <c r="F436" s="7"/>
@@ -11367,10 +11340,10 @@
       <c r="C437" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D437" s="21">
+      <c r="D437" s="8">
         <v>141</v>
       </c>
-      <c r="E437" s="19">
+      <c r="E437" s="16">
         <v>24</v>
       </c>
       <c r="F437" s="7"/>
@@ -11386,10 +11359,10 @@
       <c r="C438" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D438" s="21">
+      <c r="D438" s="8">
         <v>141</v>
       </c>
-      <c r="E438" s="19">
+      <c r="E438" s="16">
         <v>24</v>
       </c>
       <c r="F438" s="7"/>
@@ -11405,10 +11378,10 @@
       <c r="C439" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D439" s="21">
+      <c r="D439" s="8">
         <v>138</v>
       </c>
-      <c r="E439" s="19">
+      <c r="E439" s="16">
         <v>24</v>
       </c>
       <c r="F439" s="7"/>
@@ -11424,10 +11397,10 @@
       <c r="C440" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D440" s="21">
+      <c r="D440" s="8">
         <v>138</v>
       </c>
-      <c r="E440" s="19">
+      <c r="E440" s="16">
         <v>24</v>
       </c>
       <c r="F440" s="10"/>
@@ -11443,10 +11416,10 @@
       <c r="C441" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D441" s="21">
+      <c r="D441" s="8">
         <v>138</v>
       </c>
-      <c r="E441" s="19">
+      <c r="E441" s="16">
         <v>24</v>
       </c>
       <c r="F441" s="7"/>
@@ -11462,10 +11435,10 @@
       <c r="C442" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D442" s="21">
+      <c r="D442" s="8">
         <v>142</v>
       </c>
-      <c r="E442" s="19">
+      <c r="E442" s="16">
         <v>24</v>
       </c>
       <c r="F442" s="7"/>
@@ -11481,10 +11454,10 @@
       <c r="C443" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D443" s="21">
+      <c r="D443" s="8">
         <v>142</v>
       </c>
-      <c r="E443" s="19">
+      <c r="E443" s="16">
         <v>24</v>
       </c>
       <c r="F443" s="7"/>
@@ -11500,10 +11473,10 @@
       <c r="C444" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D444" s="21">
+      <c r="D444" s="8">
         <v>142</v>
       </c>
-      <c r="E444" s="19">
+      <c r="E444" s="16">
         <v>24</v>
       </c>
       <c r="F444" s="7"/>
@@ -11519,10 +11492,10 @@
       <c r="C445" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D445" s="21">
+      <c r="D445" s="8">
         <v>139</v>
       </c>
-      <c r="E445" s="19">
+      <c r="E445" s="16">
         <v>24</v>
       </c>
       <c r="F445" s="7"/>
@@ -11538,10 +11511,10 @@
       <c r="C446" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D446" s="21">
+      <c r="D446" s="8">
         <v>139</v>
       </c>
-      <c r="E446" s="19">
+      <c r="E446" s="16">
         <v>24</v>
       </c>
       <c r="F446" s="7"/>
@@ -11557,10 +11530,10 @@
       <c r="C447" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D447" s="21">
+      <c r="D447" s="8">
         <v>139</v>
       </c>
-      <c r="E447" s="19">
+      <c r="E447" s="16">
         <v>24</v>
       </c>
       <c r="F447" s="7" t="s">
@@ -11578,10 +11551,10 @@
       <c r="C448" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D448" s="21">
+      <c r="D448" s="8">
         <v>143</v>
       </c>
-      <c r="E448" s="19">
+      <c r="E448" s="16">
         <v>24</v>
       </c>
       <c r="F448" s="7"/>
@@ -11597,10 +11570,10 @@
       <c r="C449" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D449" s="21">
+      <c r="D449" s="8">
         <v>143</v>
       </c>
-      <c r="E449" s="19">
+      <c r="E449" s="16">
         <v>24</v>
       </c>
       <c r="F449" s="7"/>
@@ -11616,10 +11589,10 @@
       <c r="C450" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D450" s="21">
+      <c r="D450" s="8">
         <v>143</v>
       </c>
-      <c r="E450" s="19">
+      <c r="E450" s="16">
         <v>24</v>
       </c>
       <c r="F450" s="7"/>
@@ -11635,10 +11608,10 @@
       <c r="C451" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D451" s="21">
+      <c r="D451" s="8">
         <v>132</v>
       </c>
-      <c r="E451" s="19">
+      <c r="E451" s="16">
         <v>21</v>
       </c>
       <c r="F451" s="10"/>
@@ -11654,10 +11627,10 @@
       <c r="C452" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D452" s="21">
+      <c r="D452" s="8">
         <v>132</v>
       </c>
-      <c r="E452" s="19">
+      <c r="E452" s="16">
         <v>21</v>
       </c>
       <c r="F452" s="10"/>
@@ -11673,10 +11646,10 @@
       <c r="C453" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D453" s="21">
+      <c r="D453" s="8">
         <v>132</v>
       </c>
-      <c r="E453" s="19">
+      <c r="E453" s="16">
         <v>21</v>
       </c>
       <c r="F453" s="7"/>
@@ -11692,10 +11665,10 @@
       <c r="C454" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D454" s="21">
+      <c r="D454" s="8">
         <v>133</v>
       </c>
-      <c r="E454" s="19">
+      <c r="E454" s="16">
         <v>21</v>
       </c>
       <c r="F454" s="7"/>
@@ -11711,10 +11684,10 @@
       <c r="C455" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D455" s="21">
+      <c r="D455" s="8">
         <v>133</v>
       </c>
-      <c r="E455" s="19">
+      <c r="E455" s="16">
         <v>21</v>
       </c>
       <c r="F455" s="7"/>
@@ -11730,10 +11703,10 @@
       <c r="C456" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D456" s="21">
+      <c r="D456" s="8">
         <v>133</v>
       </c>
-      <c r="E456" s="19">
+      <c r="E456" s="16">
         <v>21</v>
       </c>
       <c r="F456" s="7"/>
@@ -11749,10 +11722,10 @@
       <c r="C457" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D457" s="21">
+      <c r="D457" s="8">
         <v>134</v>
       </c>
-      <c r="E457" s="19">
+      <c r="E457" s="16">
         <v>21</v>
       </c>
       <c r="F457" s="7"/>
@@ -11768,10 +11741,10 @@
       <c r="C458" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D458" s="21">
+      <c r="D458" s="8">
         <v>134</v>
       </c>
-      <c r="E458" s="19">
+      <c r="E458" s="16">
         <v>21</v>
       </c>
       <c r="F458" s="7"/>
@@ -11787,10 +11760,10 @@
       <c r="C459" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D459" s="21">
+      <c r="D459" s="8">
         <v>134</v>
       </c>
-      <c r="E459" s="19">
+      <c r="E459" s="16">
         <v>21</v>
       </c>
       <c r="F459" s="7"/>
@@ -11806,10 +11779,10 @@
       <c r="C460" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D460" s="21">
+      <c r="D460" s="8">
         <v>135</v>
       </c>
-      <c r="E460" s="19">
+      <c r="E460" s="16">
         <v>21</v>
       </c>
       <c r="F460" s="7"/>
@@ -11825,10 +11798,10 @@
       <c r="C461" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D461" s="21">
+      <c r="D461" s="8">
         <v>135</v>
       </c>
-      <c r="E461" s="19">
+      <c r="E461" s="16">
         <v>21</v>
       </c>
       <c r="F461" s="7"/>
@@ -11842,10 +11815,10 @@
       <c r="C462" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D462" s="21">
+      <c r="D462" s="8">
         <v>135</v>
       </c>
-      <c r="E462" s="19">
+      <c r="E462" s="16">
         <v>21</v>
       </c>
       <c r="F462" s="7"/>
@@ -11861,10 +11834,10 @@
       <c r="C463" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D463" s="21">
+      <c r="D463" s="8">
         <v>126</v>
       </c>
-      <c r="E463" s="19">
+      <c r="E463" s="16">
         <v>21</v>
       </c>
       <c r="F463" s="7"/>
@@ -11880,10 +11853,10 @@
       <c r="C464" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D464" s="21">
+      <c r="D464" s="8">
         <v>126</v>
       </c>
-      <c r="E464" s="19">
+      <c r="E464" s="16">
         <v>21</v>
       </c>
       <c r="F464" s="7"/>
@@ -11899,10 +11872,10 @@
       <c r="C465" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D465" s="21">
+      <c r="D465" s="8">
         <v>126</v>
       </c>
-      <c r="E465" s="19">
+      <c r="E465" s="16">
         <v>21</v>
       </c>
       <c r="F465" s="7"/>
@@ -11918,10 +11891,10 @@
       <c r="C466" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D466" s="21">
+      <c r="D466" s="8">
         <v>129</v>
       </c>
-      <c r="E466" s="19">
+      <c r="E466" s="16">
         <v>21</v>
       </c>
       <c r="F466" s="7"/>
@@ -11937,10 +11910,10 @@
       <c r="C467" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D467" s="21">
+      <c r="D467" s="8">
         <v>129</v>
       </c>
-      <c r="E467" s="19">
+      <c r="E467" s="16">
         <v>21</v>
       </c>
       <c r="F467" s="7"/>
@@ -11956,10 +11929,10 @@
       <c r="C468" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D468" s="21">
+      <c r="D468" s="8">
         <v>129</v>
       </c>
-      <c r="E468" s="19">
+      <c r="E468" s="16">
         <v>21</v>
       </c>
       <c r="F468" s="7"/>
@@ -11975,10 +11948,10 @@
       <c r="C469" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D469" s="21">
+      <c r="D469" s="8">
         <v>127</v>
       </c>
-      <c r="E469" s="19">
+      <c r="E469" s="16">
         <v>21</v>
       </c>
       <c r="F469" s="7"/>
@@ -11994,10 +11967,10 @@
       <c r="C470" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D470" s="21">
+      <c r="D470" s="8">
         <v>127</v>
       </c>
-      <c r="E470" s="19">
+      <c r="E470" s="16">
         <v>21</v>
       </c>
       <c r="F470" s="7"/>
@@ -12013,10 +11986,10 @@
       <c r="C471" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D471" s="21">
+      <c r="D471" s="8">
         <v>127</v>
       </c>
-      <c r="E471" s="19">
+      <c r="E471" s="16">
         <v>21</v>
       </c>
       <c r="F471" s="10"/>
@@ -12032,10 +12005,10 @@
       <c r="C472" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D472" s="21">
+      <c r="D472" s="8">
         <v>130</v>
       </c>
-      <c r="E472" s="19">
+      <c r="E472" s="16">
         <v>21</v>
       </c>
       <c r="F472" s="7"/>
@@ -12051,10 +12024,10 @@
       <c r="C473" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D473" s="21">
+      <c r="D473" s="8">
         <v>130</v>
       </c>
-      <c r="E473" s="19">
+      <c r="E473" s="16">
         <v>21</v>
       </c>
       <c r="F473" s="7"/>
@@ -12070,10 +12043,10 @@
       <c r="C474" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D474" s="21">
+      <c r="D474" s="8">
         <v>130</v>
       </c>
-      <c r="E474" s="19">
+      <c r="E474" s="16">
         <v>21</v>
       </c>
       <c r="F474" s="7" t="s">
@@ -12091,10 +12064,10 @@
       <c r="C475" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D475" s="21">
+      <c r="D475" s="8">
         <v>121</v>
       </c>
-      <c r="E475" s="19">
+      <c r="E475" s="16">
         <v>21</v>
       </c>
       <c r="F475" s="7"/>
@@ -12110,10 +12083,10 @@
       <c r="C476" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D476" s="21">
+      <c r="D476" s="8">
         <v>121</v>
       </c>
-      <c r="E476" s="19">
+      <c r="E476" s="16">
         <v>21</v>
       </c>
       <c r="F476" s="7"/>
@@ -12129,10 +12102,10 @@
       <c r="C477" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D477" s="21">
+      <c r="D477" s="8">
         <v>121</v>
       </c>
-      <c r="E477" s="19">
+      <c r="E477" s="16">
         <v>21</v>
       </c>
       <c r="F477" s="7"/>
@@ -12148,10 +12121,10 @@
       <c r="C478" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D478" s="21">
+      <c r="D478" s="8">
         <v>122</v>
       </c>
-      <c r="E478" s="19">
+      <c r="E478" s="16">
         <v>21</v>
       </c>
       <c r="F478" s="7"/>
@@ -12167,10 +12140,10 @@
       <c r="C479" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D479" s="21">
+      <c r="D479" s="8">
         <v>122</v>
       </c>
-      <c r="E479" s="19">
+      <c r="E479" s="16">
         <v>21</v>
       </c>
       <c r="F479" s="7"/>
@@ -12186,10 +12159,10 @@
       <c r="C480" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D480" s="21">
+      <c r="D480" s="8">
         <v>122</v>
       </c>
-      <c r="E480" s="19">
+      <c r="E480" s="16">
         <v>21</v>
       </c>
       <c r="F480" s="10"/>
@@ -12205,10 +12178,10 @@
       <c r="C481" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D481" s="21">
+      <c r="D481" s="8">
         <v>115</v>
       </c>
-      <c r="E481" s="19">
+      <c r="E481" s="16">
         <v>20</v>
       </c>
       <c r="F481" s="7"/>
@@ -12224,10 +12197,10 @@
       <c r="C482" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D482" s="21">
+      <c r="D482" s="8">
         <v>115</v>
       </c>
-      <c r="E482" s="19">
+      <c r="E482" s="16">
         <v>20</v>
       </c>
       <c r="F482" s="7"/>
@@ -12243,10 +12216,10 @@
       <c r="C483" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D483" s="21">
+      <c r="D483" s="8">
         <v>115</v>
       </c>
-      <c r="E483" s="19">
+      <c r="E483" s="16">
         <v>20</v>
       </c>
       <c r="F483" s="10"/>
@@ -12262,10 +12235,10 @@
       <c r="C484" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D484" s="21">
+      <c r="D484" s="8">
         <v>116</v>
       </c>
-      <c r="E484" s="19">
+      <c r="E484" s="16">
         <v>20</v>
       </c>
       <c r="F484" s="7"/>
@@ -12281,10 +12254,10 @@
       <c r="C485" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D485" s="21">
+      <c r="D485" s="8">
         <v>116</v>
       </c>
-      <c r="E485" s="19">
+      <c r="E485" s="16">
         <v>20</v>
       </c>
       <c r="F485" s="7"/>
@@ -12300,10 +12273,10 @@
       <c r="C486" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D486" s="21">
+      <c r="D486" s="8">
         <v>116</v>
       </c>
-      <c r="E486" s="19">
+      <c r="E486" s="16">
         <v>20</v>
       </c>
       <c r="F486" s="10"/>
@@ -12319,10 +12292,10 @@
       <c r="C487" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D487" s="21">
+      <c r="D487" s="8">
         <v>117</v>
       </c>
-      <c r="E487" s="19">
+      <c r="E487" s="16">
         <v>20</v>
       </c>
       <c r="F487" s="7"/>
@@ -12338,10 +12311,10 @@
       <c r="C488" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D488" s="21">
+      <c r="D488" s="8">
         <v>117</v>
       </c>
-      <c r="E488" s="19">
+      <c r="E488" s="16">
         <v>20</v>
       </c>
       <c r="F488" s="7"/>
@@ -12357,10 +12330,10 @@
       <c r="C489" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D489" s="21">
+      <c r="D489" s="8">
         <v>117</v>
       </c>
-      <c r="E489" s="19">
+      <c r="E489" s="16">
         <v>20</v>
       </c>
       <c r="F489" s="7"/>
@@ -12376,10 +12349,10 @@
       <c r="C490" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D490" s="21">
+      <c r="D490" s="8">
         <v>118</v>
       </c>
-      <c r="E490" s="19">
+      <c r="E490" s="16">
         <v>20</v>
       </c>
       <c r="F490" s="7"/>
@@ -12395,10 +12368,10 @@
       <c r="C491" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D491" s="21">
+      <c r="D491" s="8">
         <v>118</v>
       </c>
-      <c r="E491" s="19">
+      <c r="E491" s="16">
         <v>20</v>
       </c>
       <c r="F491" s="7"/>
@@ -12414,10 +12387,10 @@
       <c r="C492" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D492" s="21">
+      <c r="D492" s="8">
         <v>118</v>
       </c>
-      <c r="E492" s="19">
+      <c r="E492" s="16">
         <v>20</v>
       </c>
       <c r="F492" s="7"/>
@@ -12433,10 +12406,10 @@
       <c r="C493" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D493" s="21">
+      <c r="D493" s="8">
         <v>119</v>
       </c>
-      <c r="E493" s="19">
+      <c r="E493" s="16">
         <v>20</v>
       </c>
       <c r="F493" s="10"/>
@@ -12452,10 +12425,10 @@
       <c r="C494" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D494" s="21">
+      <c r="D494" s="8">
         <v>119</v>
       </c>
-      <c r="E494" s="19">
+      <c r="E494" s="16">
         <v>20</v>
       </c>
       <c r="F494" s="7"/>
@@ -12471,10 +12444,10 @@
       <c r="C495" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D495" s="21">
+      <c r="D495" s="8">
         <v>119</v>
       </c>
-      <c r="E495" s="19">
+      <c r="E495" s="16">
         <v>20</v>
       </c>
       <c r="F495" s="7"/>
@@ -12490,10 +12463,10 @@
       <c r="C496" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D496" s="21">
+      <c r="D496" s="8">
         <v>110</v>
       </c>
-      <c r="E496" s="19">
+      <c r="E496" s="16">
         <v>20</v>
       </c>
       <c r="F496" s="7"/>
@@ -12509,10 +12482,10 @@
       <c r="C497" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D497" s="21">
+      <c r="D497" s="8">
         <v>110</v>
       </c>
-      <c r="E497" s="19">
+      <c r="E497" s="16">
         <v>20</v>
       </c>
       <c r="F497" s="7"/>
@@ -12528,10 +12501,10 @@
       <c r="C498" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D498" s="21">
+      <c r="D498" s="8">
         <v>110</v>
       </c>
-      <c r="E498" s="19">
+      <c r="E498" s="16">
         <v>20</v>
       </c>
       <c r="F498" s="7"/>
@@ -12547,10 +12520,10 @@
       <c r="C499" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D499" s="21">
+      <c r="D499" s="8">
         <v>111</v>
       </c>
-      <c r="E499" s="19">
+      <c r="E499" s="16">
         <v>20</v>
       </c>
       <c r="F499" s="7"/>
@@ -12566,10 +12539,10 @@
       <c r="C500" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D500" s="21">
+      <c r="D500" s="8">
         <v>111</v>
       </c>
-      <c r="E500" s="19">
+      <c r="E500" s="16">
         <v>20</v>
       </c>
       <c r="F500" s="7"/>
@@ -12585,10 +12558,10 @@
       <c r="C501" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D501" s="21">
+      <c r="D501" s="8">
         <v>111</v>
       </c>
-      <c r="E501" s="19">
+      <c r="E501" s="16">
         <v>20</v>
       </c>
       <c r="F501" s="7"/>
@@ -12604,10 +12577,10 @@
       <c r="C502" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D502" s="21">
+      <c r="D502" s="8">
         <v>112</v>
       </c>
-      <c r="E502" s="19">
+      <c r="E502" s="16">
         <v>20</v>
       </c>
       <c r="F502" s="7"/>
@@ -12623,10 +12596,10 @@
       <c r="C503" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D503" s="21">
+      <c r="D503" s="8">
         <v>112</v>
       </c>
-      <c r="E503" s="19">
+      <c r="E503" s="16">
         <v>20</v>
       </c>
       <c r="F503" s="7"/>
@@ -12642,10 +12615,10 @@
       <c r="C504" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D504" s="21">
+      <c r="D504" s="8">
         <v>112</v>
       </c>
-      <c r="E504" s="19">
+      <c r="E504" s="16">
         <v>20</v>
       </c>
       <c r="F504" s="7"/>
@@ -12661,10 +12634,10 @@
       <c r="C505" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D505" s="21">
+      <c r="D505" s="8">
         <v>113</v>
       </c>
-      <c r="E505" s="19">
+      <c r="E505" s="16">
         <v>20</v>
       </c>
       <c r="F505" s="7"/>
@@ -12680,10 +12653,10 @@
       <c r="C506" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D506" s="21">
+      <c r="D506" s="8">
         <v>113</v>
       </c>
-      <c r="E506" s="19">
+      <c r="E506" s="16">
         <v>20</v>
       </c>
       <c r="F506" s="7"/>
@@ -12699,10 +12672,10 @@
       <c r="C507" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D507" s="21">
+      <c r="D507" s="8">
         <v>113</v>
       </c>
-      <c r="E507" s="19">
+      <c r="E507" s="16">
         <v>20</v>
       </c>
       <c r="F507" s="7"/>
@@ -12718,10 +12691,10 @@
       <c r="C508" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D508" s="21">
+      <c r="D508" s="8">
         <v>114</v>
       </c>
-      <c r="E508" s="19">
+      <c r="E508" s="16">
         <v>20</v>
       </c>
       <c r="F508" s="7"/>
@@ -12737,10 +12710,10 @@
       <c r="C509" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D509" s="21">
+      <c r="D509" s="8">
         <v>114</v>
       </c>
-      <c r="E509" s="19">
+      <c r="E509" s="16">
         <v>20</v>
       </c>
       <c r="F509" s="7"/>
@@ -12756,10 +12729,10 @@
       <c r="C510" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D510" s="21">
+      <c r="D510" s="8">
         <v>114</v>
       </c>
-      <c r="E510" s="19">
+      <c r="E510" s="16">
         <v>20</v>
       </c>
       <c r="F510" s="7"/>
@@ -12775,10 +12748,10 @@
       <c r="C511" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D511" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E511" s="19">
+      <c r="D511" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E511" s="16">
         <v>2</v>
       </c>
       <c r="F511" s="7"/>
@@ -12794,10 +12767,10 @@
       <c r="C512" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D512" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E512" s="19">
+      <c r="D512" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E512" s="16">
         <v>2</v>
       </c>
       <c r="F512" s="7"/>
@@ -12813,10 +12786,10 @@
       <c r="C513" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D513" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E513" s="19">
+      <c r="D513" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E513" s="16">
         <v>2</v>
       </c>
       <c r="F513" s="7"/>
@@ -12832,7 +12805,7 @@
       <c r="C514" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D514" s="17" t="s">
+      <c r="D514" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E514" s="16" t="s">
@@ -12851,7 +12824,7 @@
       <c r="C515" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D515" s="17" t="s">
+      <c r="D515" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E515" s="16" t="s">
@@ -12870,10 +12843,10 @@
       <c r="C516" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D516" s="15" t="s">
+      <c r="D516" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="E516" s="19">
+      <c r="E516" s="16">
         <v>5</v>
       </c>
       <c r="F516" s="7" t="s">
@@ -12891,10 +12864,10 @@
       <c r="C517" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D517" s="21">
+      <c r="D517" s="8">
         <v>101</v>
       </c>
-      <c r="E517" s="19">
+      <c r="E517" s="16">
         <v>9</v>
       </c>
       <c r="F517" s="7"/>
@@ -12910,10 +12883,10 @@
       <c r="C518" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D518" s="21">
+      <c r="D518" s="8">
         <v>101</v>
       </c>
-      <c r="E518" s="19">
+      <c r="E518" s="16">
         <v>9</v>
       </c>
       <c r="F518" s="7"/>
@@ -12929,7 +12902,7 @@
       <c r="C519" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D519" s="15" t="s">
+      <c r="D519" s="8" t="s">
         <v>816</v>
       </c>
       <c r="E519" s="16" t="s">
@@ -12948,7 +12921,7 @@
       <c r="C520" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D520" s="15" t="s">
+      <c r="D520" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E520" s="16"/>
@@ -12967,7 +12940,7 @@
       <c r="C521" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D521" s="15" t="s">
+      <c r="D521" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E521" s="16"/>
@@ -12986,7 +12959,7 @@
       <c r="C522" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D522" s="15" t="s">
+      <c r="D522" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E522" s="16"/>
@@ -13005,7 +12978,7 @@
       <c r="C523" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D523" s="15" t="s">
+      <c r="D523" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E523" s="16"/>
@@ -13024,7 +12997,7 @@
       <c r="C524" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D524" s="15" t="s">
+      <c r="D524" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E524" s="16"/>
@@ -13043,7 +13016,7 @@
       <c r="C525" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D525" s="15" t="s">
+      <c r="D525" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E525" s="16"/>
@@ -13060,7 +13033,7 @@
       <c r="C526" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D526" s="15" t="s">
+      <c r="D526" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E526" s="16"/>
@@ -13075,7 +13048,7 @@
       <c r="C527" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D527" s="15" t="s">
+      <c r="D527" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E527" s="16"/>
@@ -13090,7 +13063,7 @@
       <c r="C528" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D528" s="15" t="s">
+      <c r="D528" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E528" s="16"/>
@@ -13105,7 +13078,7 @@
       <c r="C529" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D529" s="15" t="s">
+      <c r="D529" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E529" s="16"/>
@@ -13122,7 +13095,7 @@
       <c r="C530" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D530" s="15" t="s">
+      <c r="D530" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E530" s="16"/>
@@ -13141,7 +13114,7 @@
       <c r="C531" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D531" s="15" t="s">
+      <c r="D531" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E531" s="16"/>
@@ -13160,7 +13133,7 @@
       <c r="C532" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D532" s="15" t="s">
+      <c r="D532" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E532" s="16"/>
@@ -13179,7 +13152,7 @@
       <c r="C533" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D533" s="15" t="s">
+      <c r="D533" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E533" s="16"/>
@@ -13198,7 +13171,7 @@
       <c r="C534" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D534" s="15" t="s">
+      <c r="D534" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E534" s="16"/>
@@ -13213,7 +13186,7 @@
       </c>
       <c r="B535" s="5"/>
       <c r="C535" s="6"/>
-      <c r="D535" s="15"/>
+      <c r="D535" s="8"/>
       <c r="E535" s="16"/>
       <c r="F535" s="7"/>
       <c r="G535" s="7"/>
@@ -13228,10 +13201,10 @@
       <c r="C536" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D536" s="21">
+      <c r="D536" s="8">
         <v>47</v>
       </c>
-      <c r="E536" s="19">
+      <c r="E536" s="16">
         <v>4</v>
       </c>
       <c r="F536" s="7"/>
@@ -13247,10 +13220,10 @@
       <c r="C537" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D537" s="21">
+      <c r="D537" s="8">
         <v>47</v>
       </c>
-      <c r="E537" s="19">
+      <c r="E537" s="16">
         <v>4</v>
       </c>
       <c r="F537" s="7"/>
@@ -13266,10 +13239,10 @@
       <c r="C538" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D538" s="21">
+      <c r="D538" s="8">
         <v>47</v>
       </c>
-      <c r="E538" s="19">
+      <c r="E538" s="16">
         <v>4</v>
       </c>
       <c r="F538" s="7"/>
@@ -13285,10 +13258,10 @@
       <c r="C539" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D539" s="20">
+      <c r="D539" s="5">
         <v>8</v>
       </c>
-      <c r="E539" s="18">
+      <c r="E539" s="11">
         <v>1</v>
       </c>
       <c r="F539" s="7"/>
@@ -13304,10 +13277,10 @@
       <c r="C540" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D540" s="20">
+      <c r="D540" s="5">
         <v>8</v>
       </c>
-      <c r="E540" s="18">
+      <c r="E540" s="11">
         <v>1</v>
       </c>
       <c r="F540" s="7"/>
@@ -13323,10 +13296,10 @@
       <c r="C541" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D541" s="21">
+      <c r="D541" s="8">
         <v>8</v>
       </c>
-      <c r="E541" s="19">
+      <c r="E541" s="16">
         <v>1</v>
       </c>
       <c r="F541" s="10"/>
@@ -13342,10 +13315,10 @@
       <c r="C542" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D542" s="21">
+      <c r="D542" s="8">
         <v>19</v>
       </c>
-      <c r="E542" s="19">
+      <c r="E542" s="16">
         <v>1</v>
       </c>
       <c r="F542" s="10" t="s">
@@ -13365,10 +13338,10 @@
       <c r="C543" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D543" s="21">
+      <c r="D543" s="8">
         <v>19</v>
       </c>
-      <c r="E543" s="19">
+      <c r="E543" s="16">
         <v>1</v>
       </c>
       <c r="F543" s="10" t="s">
@@ -13388,10 +13361,10 @@
       <c r="C544" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D544" s="20">
+      <c r="D544" s="5">
         <v>19</v>
       </c>
-      <c r="E544" s="18">
+      <c r="E544" s="11">
         <v>1</v>
       </c>
       <c r="F544" s="7"/>
@@ -13407,10 +13380,10 @@
       <c r="C545" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D545" s="20">
+      <c r="D545" s="5">
         <v>24</v>
       </c>
-      <c r="E545" s="18">
+      <c r="E545" s="11">
         <v>1</v>
       </c>
       <c r="F545" s="7"/>
@@ -13426,10 +13399,10 @@
       <c r="C546" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D546" s="20">
+      <c r="D546" s="5">
         <v>24</v>
       </c>
-      <c r="E546" s="18">
+      <c r="E546" s="11">
         <v>1</v>
       </c>
       <c r="F546" s="7"/>
@@ -13445,10 +13418,10 @@
       <c r="C547" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D547" s="20">
+      <c r="D547" s="5">
         <v>24</v>
       </c>
-      <c r="E547" s="18">
+      <c r="E547" s="11">
         <v>1</v>
       </c>
       <c r="F547" s="7"/>
@@ -13464,10 +13437,10 @@
       <c r="C548" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D548" s="20">
+      <c r="D548" s="5">
         <v>43</v>
       </c>
-      <c r="E548" s="19">
+      <c r="E548" s="16">
         <v>3</v>
       </c>
       <c r="F548" s="7"/>
@@ -13483,10 +13456,10 @@
       <c r="C549" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D549" s="20">
+      <c r="D549" s="5">
         <v>43</v>
       </c>
-      <c r="E549" s="19">
+      <c r="E549" s="16">
         <v>3</v>
       </c>
       <c r="F549" s="7"/>
@@ -13502,10 +13475,10 @@
       <c r="C550" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D550" s="21">
+      <c r="D550" s="8">
         <v>43</v>
       </c>
-      <c r="E550" s="19">
+      <c r="E550" s="16">
         <v>3</v>
       </c>
       <c r="F550" s="10"/>
@@ -13521,10 +13494,10 @@
       <c r="C551" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D551" s="21">
-        <v>39</v>
-      </c>
-      <c r="E551" s="19">
+      <c r="D551" s="8">
+        <v>39</v>
+      </c>
+      <c r="E551" s="16">
         <v>3</v>
       </c>
       <c r="F551" s="7"/>
@@ -13540,10 +13513,10 @@
       <c r="C552" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D552" s="21">
-        <v>39</v>
-      </c>
-      <c r="E552" s="19">
+      <c r="D552" s="8">
+        <v>39</v>
+      </c>
+      <c r="E552" s="16">
         <v>3</v>
       </c>
       <c r="F552" s="7"/>
@@ -13559,10 +13532,10 @@
       <c r="C553" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D553" s="21">
-        <v>39</v>
-      </c>
-      <c r="E553" s="19">
+      <c r="D553" s="8">
+        <v>39</v>
+      </c>
+      <c r="E553" s="16">
         <v>3</v>
       </c>
       <c r="F553" s="10"/>
@@ -13578,10 +13551,10 @@
       <c r="C554" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D554" s="20">
-        <v>40</v>
-      </c>
-      <c r="E554" s="18">
+      <c r="D554" s="5">
+        <v>40</v>
+      </c>
+      <c r="E554" s="11">
         <v>3</v>
       </c>
       <c r="F554" s="7"/>
@@ -13597,10 +13570,10 @@
       <c r="C555" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D555" s="20">
-        <v>40</v>
-      </c>
-      <c r="E555" s="18">
+      <c r="D555" s="5">
+        <v>40</v>
+      </c>
+      <c r="E555" s="11">
         <v>3</v>
       </c>
       <c r="F555" s="7"/>
@@ -13616,10 +13589,10 @@
       <c r="C556" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D556" s="20">
-        <v>40</v>
-      </c>
-      <c r="E556" s="18">
+      <c r="D556" s="5">
+        <v>40</v>
+      </c>
+      <c r="E556" s="11">
         <v>3</v>
       </c>
       <c r="F556" s="7"/>
@@ -13635,10 +13608,10 @@
       <c r="C557" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D557" s="20">
-        <v>44</v>
-      </c>
-      <c r="E557" s="18">
+      <c r="D557" s="5">
+        <v>44</v>
+      </c>
+      <c r="E557" s="11">
         <v>3</v>
       </c>
       <c r="F557" s="7"/>
@@ -13654,10 +13627,10 @@
       <c r="C558" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D558" s="20">
-        <v>44</v>
-      </c>
-      <c r="E558" s="18">
+      <c r="D558" s="5">
+        <v>44</v>
+      </c>
+      <c r="E558" s="11">
         <v>3</v>
       </c>
       <c r="F558" s="7"/>
@@ -13673,10 +13646,10 @@
       <c r="C559" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D559" s="21">
-        <v>44</v>
-      </c>
-      <c r="E559" s="19">
+      <c r="D559" s="8">
+        <v>44</v>
+      </c>
+      <c r="E559" s="16">
         <v>3</v>
       </c>
       <c r="F559" s="10"/>
@@ -13692,10 +13665,10 @@
       <c r="C560" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D560" s="20">
+      <c r="D560" s="5">
         <v>124</v>
       </c>
-      <c r="E560" s="18">
+      <c r="E560" s="11">
         <v>21</v>
       </c>
       <c r="F560" s="7"/>
@@ -13711,10 +13684,10 @@
       <c r="C561" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D561" s="20">
+      <c r="D561" s="5">
         <v>124</v>
       </c>
-      <c r="E561" s="18">
+      <c r="E561" s="11">
         <v>21</v>
       </c>
       <c r="F561" s="7"/>
@@ -13730,10 +13703,10 @@
       <c r="C562" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D562" s="20">
+      <c r="D562" s="5">
         <v>124</v>
       </c>
-      <c r="E562" s="18">
+      <c r="E562" s="11">
         <v>21</v>
       </c>
       <c r="F562" s="7"/>
@@ -13749,10 +13722,10 @@
       <c r="C563" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D563" s="20">
+      <c r="D563" s="5">
         <v>125</v>
       </c>
-      <c r="E563" s="18">
+      <c r="E563" s="11">
         <v>21</v>
       </c>
       <c r="F563" s="7"/>
@@ -13768,10 +13741,10 @@
       <c r="C564" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D564" s="20">
+      <c r="D564" s="5">
         <v>125</v>
       </c>
-      <c r="E564" s="18">
+      <c r="E564" s="11">
         <v>21</v>
       </c>
       <c r="F564" s="7"/>
@@ -13787,10 +13760,10 @@
       <c r="C565" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D565" s="20">
+      <c r="D565" s="5">
         <v>125</v>
       </c>
-      <c r="E565" s="18">
+      <c r="E565" s="11">
         <v>21</v>
       </c>
       <c r="F565" s="7"/>
@@ -13806,10 +13779,10 @@
       <c r="C566" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D566" s="20">
+      <c r="D566" s="5">
         <v>128</v>
       </c>
-      <c r="E566" s="18">
+      <c r="E566" s="11">
         <v>21</v>
       </c>
       <c r="F566" s="7"/>
@@ -13825,10 +13798,10 @@
       <c r="C567" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D567" s="20">
+      <c r="D567" s="5">
         <v>128</v>
       </c>
-      <c r="E567" s="18">
+      <c r="E567" s="11">
         <v>21</v>
       </c>
       <c r="F567" s="7"/>
@@ -13844,10 +13817,10 @@
       <c r="C568" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D568" s="20">
+      <c r="D568" s="5">
         <v>128</v>
       </c>
-      <c r="E568" s="18">
+      <c r="E568" s="11">
         <v>21</v>
       </c>
       <c r="F568" s="7"/>
@@ -13863,10 +13836,10 @@
       <c r="C569" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D569" s="20">
+      <c r="D569" s="5">
         <v>131</v>
       </c>
-      <c r="E569" s="18">
+      <c r="E569" s="11">
         <v>21</v>
       </c>
       <c r="F569" s="7"/>
@@ -13882,10 +13855,10 @@
       <c r="C570" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D570" s="20">
+      <c r="D570" s="5">
         <v>131</v>
       </c>
-      <c r="E570" s="18">
+      <c r="E570" s="11">
         <v>21</v>
       </c>
       <c r="F570" s="7"/>
@@ -13901,10 +13874,10 @@
       <c r="C571" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D571" s="20">
+      <c r="D571" s="5">
         <v>131</v>
       </c>
-      <c r="E571" s="18">
+      <c r="E571" s="11">
         <v>21</v>
       </c>
       <c r="F571" s="7"/>
@@ -13920,10 +13893,10 @@
       <c r="C572" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D572" s="20">
+      <c r="D572" s="5">
         <v>173</v>
       </c>
-      <c r="E572" s="18">
+      <c r="E572" s="11">
         <v>26</v>
       </c>
       <c r="F572" s="7" t="s">
@@ -13941,10 +13914,10 @@
       <c r="C573" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D573" s="20">
+      <c r="D573" s="5">
         <v>173</v>
       </c>
-      <c r="E573" s="18">
+      <c r="E573" s="11">
         <v>26</v>
       </c>
       <c r="F573" s="7"/>
@@ -13960,10 +13933,10 @@
       <c r="C574" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D574" s="20">
+      <c r="D574" s="5">
         <v>173</v>
       </c>
-      <c r="E574" s="18">
+      <c r="E574" s="11">
         <v>26</v>
       </c>
       <c r="F574" s="7"/>
@@ -13979,10 +13952,10 @@
       <c r="C575" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D575" s="20">
+      <c r="D575" s="5">
         <v>172</v>
       </c>
-      <c r="E575" s="18">
+      <c r="E575" s="11">
         <v>26</v>
       </c>
       <c r="F575" s="7"/>
@@ -13998,10 +13971,10 @@
       <c r="C576" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D576" s="20">
+      <c r="D576" s="5">
         <v>172</v>
       </c>
-      <c r="E576" s="18">
+      <c r="E576" s="11">
         <v>26</v>
       </c>
       <c r="F576" s="7"/>
@@ -14017,10 +13990,10 @@
       <c r="C577" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D577" s="20">
+      <c r="D577" s="5">
         <v>172</v>
       </c>
-      <c r="E577" s="18">
+      <c r="E577" s="11">
         <v>26</v>
       </c>
       <c r="F577" s="7" t="s">
@@ -14038,10 +14011,10 @@
       <c r="C578" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D578" s="21">
+      <c r="D578" s="8">
         <v>171</v>
       </c>
-      <c r="E578" s="19">
+      <c r="E578" s="16">
         <v>26</v>
       </c>
       <c r="F578" s="10"/>
@@ -14057,10 +14030,10 @@
       <c r="C579" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D579" s="20">
+      <c r="D579" s="5">
         <v>171</v>
       </c>
-      <c r="E579" s="18">
+      <c r="E579" s="11">
         <v>26</v>
       </c>
       <c r="F579" s="7" t="s">
@@ -14078,10 +14051,10 @@
       <c r="C580" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D580" s="21">
+      <c r="D580" s="8">
         <v>171</v>
       </c>
-      <c r="E580" s="19">
+      <c r="E580" s="16">
         <v>26</v>
       </c>
       <c r="F580" s="10"/>
@@ -14097,10 +14070,10 @@
       <c r="C581" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D581" s="20">
+      <c r="D581" s="5">
         <v>175</v>
       </c>
-      <c r="E581" s="18">
+      <c r="E581" s="11">
         <v>26</v>
       </c>
       <c r="F581" s="7"/>
@@ -14116,10 +14089,10 @@
       <c r="C582" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D582" s="20">
+      <c r="D582" s="5">
         <v>175</v>
       </c>
-      <c r="E582" s="18">
+      <c r="E582" s="11">
         <v>26</v>
       </c>
       <c r="F582" s="7"/>
@@ -14135,10 +14108,10 @@
       <c r="C583" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D583" s="20">
+      <c r="D583" s="5">
         <v>175</v>
       </c>
-      <c r="E583" s="18">
+      <c r="E583" s="11">
         <v>26</v>
       </c>
       <c r="F583" s="7" t="s">
@@ -14156,10 +14129,10 @@
       <c r="C584" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D584" s="20">
+      <c r="D584" s="5">
         <v>170</v>
       </c>
-      <c r="E584" s="18">
+      <c r="E584" s="11">
         <v>26</v>
       </c>
       <c r="F584" s="7"/>
@@ -14175,10 +14148,10 @@
       <c r="C585" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D585" s="20">
+      <c r="D585" s="5">
         <v>170</v>
       </c>
-      <c r="E585" s="18">
+      <c r="E585" s="11">
         <v>26</v>
       </c>
       <c r="F585" s="7"/>
@@ -14194,10 +14167,10 @@
       <c r="C586" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D586" s="20">
+      <c r="D586" s="5">
         <v>170</v>
       </c>
-      <c r="E586" s="18">
+      <c r="E586" s="11">
         <v>26</v>
       </c>
       <c r="F586" s="7"/>
@@ -14213,10 +14186,10 @@
       <c r="C587" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D587" s="20">
+      <c r="D587" s="5">
         <v>174</v>
       </c>
-      <c r="E587" s="18">
+      <c r="E587" s="11">
         <v>26</v>
       </c>
       <c r="F587" s="7"/>
@@ -14232,10 +14205,10 @@
       <c r="C588" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D588" s="21">
+      <c r="D588" s="8">
         <v>174</v>
       </c>
-      <c r="E588" s="19">
+      <c r="E588" s="16">
         <v>26</v>
       </c>
       <c r="F588" s="10"/>
@@ -14251,10 +14224,10 @@
       <c r="C589" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D589" s="20">
+      <c r="D589" s="5">
         <v>174</v>
       </c>
-      <c r="E589" s="18">
+      <c r="E589" s="11">
         <v>26</v>
       </c>
       <c r="F589" s="7"/>
@@ -14270,10 +14243,10 @@
       <c r="C590" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D590" s="21">
+      <c r="D590" s="8">
         <v>179</v>
       </c>
-      <c r="E590" s="19">
+      <c r="E590" s="16">
         <v>26</v>
       </c>
       <c r="F590" s="10"/>
@@ -14289,10 +14262,10 @@
       <c r="C591" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D591" s="20">
+      <c r="D591" s="5">
         <v>179</v>
       </c>
-      <c r="E591" s="18">
+      <c r="E591" s="11">
         <v>26</v>
       </c>
       <c r="F591" s="7"/>
@@ -14308,10 +14281,10 @@
       <c r="C592" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D592" s="20">
+      <c r="D592" s="5">
         <v>179</v>
       </c>
-      <c r="E592" s="18">
+      <c r="E592" s="11">
         <v>26</v>
       </c>
       <c r="F592" s="7"/>
@@ -14327,10 +14300,10 @@
       <c r="C593" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D593" s="20">
+      <c r="D593" s="5">
         <v>178</v>
       </c>
-      <c r="E593" s="18">
+      <c r="E593" s="11">
         <v>26</v>
       </c>
       <c r="F593" s="7"/>
@@ -14346,10 +14319,10 @@
       <c r="C594" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D594" s="20">
+      <c r="D594" s="5">
         <v>178</v>
       </c>
-      <c r="E594" s="18">
+      <c r="E594" s="11">
         <v>26</v>
       </c>
       <c r="F594" s="7"/>
@@ -14365,10 +14338,10 @@
       <c r="C595" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D595" s="20">
+      <c r="D595" s="5">
         <v>178</v>
       </c>
-      <c r="E595" s="18">
+      <c r="E595" s="11">
         <v>26</v>
       </c>
       <c r="F595" s="7"/>
@@ -14384,10 +14357,10 @@
       <c r="C596" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D596" s="20">
+      <c r="D596" s="5">
         <v>177</v>
       </c>
-      <c r="E596" s="18">
+      <c r="E596" s="11">
         <v>26</v>
       </c>
       <c r="F596" s="7"/>
@@ -14403,10 +14376,10 @@
       <c r="C597" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D597" s="20">
+      <c r="D597" s="5">
         <v>177</v>
       </c>
-      <c r="E597" s="18">
+      <c r="E597" s="11">
         <v>26</v>
       </c>
       <c r="F597" s="7"/>
@@ -14422,10 +14395,10 @@
       <c r="C598" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D598" s="20">
+      <c r="D598" s="5">
         <v>177</v>
       </c>
-      <c r="E598" s="18">
+      <c r="E598" s="11">
         <v>26</v>
       </c>
       <c r="F598" s="7"/>
@@ -14441,10 +14414,10 @@
       <c r="C599" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D599" s="20">
+      <c r="D599" s="5">
         <v>176</v>
       </c>
-      <c r="E599" s="18">
+      <c r="E599" s="11">
         <v>26</v>
       </c>
       <c r="F599" s="7"/>
@@ -14460,10 +14433,10 @@
       <c r="C600" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D600" s="20">
+      <c r="D600" s="5">
         <v>176</v>
       </c>
-      <c r="E600" s="18">
+      <c r="E600" s="11">
         <v>26</v>
       </c>
       <c r="F600" s="7"/>
@@ -14479,10 +14452,10 @@
       <c r="C601" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D601" s="20">
+      <c r="D601" s="5">
         <v>176</v>
       </c>
-      <c r="E601" s="18">
+      <c r="E601" s="11">
         <v>26</v>
       </c>
       <c r="F601" s="7"/>

--- a/src/main/resources/кроссовый_журнал_Аврора.xlsx
+++ b/src/main/resources/кроссовый_журнал_Аврора.xlsx
@@ -3030,8 +3030,8 @@
   <dimension ref="A1:G601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F292" sqref="F292"/>
+      <pane ySplit="1" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E513" sqref="E513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
